--- a/TEMPLATE.xlsx
+++ b/TEMPLATE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WillDavidson\Documents\Programming\Switch\building-modelling\brick-generator\brick-xlsx-generator\testing_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WillDavidson\Documents\Programming\Switch\building-modelling\brick-generator\brick-xlsx-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAB0E8D-8B01-4BD6-9382-AC7A0647F5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731AE6A9-76C1-4F78-88ED-636405DB29E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="7" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="points" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">equipment!$M$2:$P$1397</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">equipment!$N$2:$Q$1397</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">locations!$A$2:$J$418</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">points!$A$2:$K$5760</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">points!$A$2:$L$5760</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>AHU</t>
   </si>
@@ -144,6 +144,12 @@
   <si>
     <t>switch:Building</t>
   </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>hasObjectPropertyId</t>
+  </si>
 </sst>
 </file>
 
@@ -244,10 +250,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -513,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AEDC0C-20A5-4EB8-94EA-FBCE805F82DE}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,16 +533,17 @@
     <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -554,16 +557,19 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -595,38 +601,41 @@
         <v>10</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -639,11 +648,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65EC436-3202-4484-B86F-B567073CC76B}">
-  <dimension ref="A1:P1335"/>
+  <dimension ref="A1:Q1335"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A1332" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1332" sqref="A1332:A1335"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,12 +669,13 @@
     <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -680,14 +690,17 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -724,16 +737,19 @@
       <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -753,7 +769,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="M2:P1397" xr:uid="{A33C7740-CBAB-4789-9F85-170C15C1FE84}"/>
+  <autoFilter ref="N2:Q1397" xr:uid="{A33C7740-CBAB-4789-9F85-170C15C1FE84}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -761,10 +777,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9498A89-E1D0-4A26-9C7A-CDF9B9BF6080}">
-  <dimension ref="A1:K3290"/>
+  <dimension ref="A1:L3290"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,13 +792,14 @@
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -792,14 +809,17 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -821,3144 +841,3147 @@
       <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="5"/>
       <c r="E186" s="5"/>
-      <c r="J186" s="5"/>
       <c r="K186" s="5"/>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L186" s="5"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="5"/>
       <c r="E187" s="5"/>
-      <c r="J187" s="5"/>
       <c r="K187" s="5"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L187" s="5"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
       <c r="E188" s="5"/>
-      <c r="J188" s="5"/>
       <c r="K188" s="5"/>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L188" s="5"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="5"/>
       <c r="E189" s="5"/>
-      <c r="J189" s="5"/>
       <c r="K189" s="5"/>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L189" s="5"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="5"/>
       <c r="E190" s="5"/>
-      <c r="J190" s="5"/>
       <c r="K190" s="5"/>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L190" s="5"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="5"/>
       <c r="E193" s="5"/>
-      <c r="J193" s="5"/>
       <c r="K193" s="5"/>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L193" s="5"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="5"/>
       <c r="E195" s="5"/>
-      <c r="J195" s="5"/>
       <c r="K195" s="5"/>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L195" s="5"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="5"/>
       <c r="E196" s="5"/>
-      <c r="J196" s="5"/>
       <c r="K196" s="5"/>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L196" s="5"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="5"/>
       <c r="E199" s="5"/>
-      <c r="J199" s="5"/>
       <c r="K199" s="5"/>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L199" s="5"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="5"/>
       <c r="E200" s="5"/>
-      <c r="J200" s="5"/>
       <c r="K200" s="5"/>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L200" s="5"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="5"/>
       <c r="E201" s="5"/>
-      <c r="J201" s="5"/>
       <c r="K201" s="5"/>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L201" s="5"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="5"/>
       <c r="E202" s="5"/>
-      <c r="J202" s="5"/>
       <c r="K202" s="5"/>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L202" s="5"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" s="5"/>
       <c r="E205" s="5"/>
-      <c r="J205" s="5"/>
       <c r="K205" s="5"/>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L205" s="5"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" s="5"/>
       <c r="E208" s="5"/>
-      <c r="J208" s="5"/>
       <c r="K208" s="5"/>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L208" s="5"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="5"/>
       <c r="E209" s="5"/>
-      <c r="J209" s="5"/>
       <c r="K209" s="5"/>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L209" s="5"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="5"/>
       <c r="E210" s="5"/>
-      <c r="J210" s="5"/>
       <c r="K210" s="5"/>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L210" s="5"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" s="5"/>
       <c r="E213" s="5"/>
-      <c r="J213" s="5"/>
       <c r="K213" s="5"/>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L213" s="5"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="5"/>
       <c r="E216" s="5"/>
-      <c r="J216" s="5"/>
       <c r="K216" s="5"/>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L216" s="5"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" s="5"/>
       <c r="E217" s="5"/>
-      <c r="J217" s="5"/>
       <c r="K217" s="5"/>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L217" s="5"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" s="5"/>
       <c r="E218" s="5"/>
-      <c r="J218" s="5"/>
       <c r="K218" s="5"/>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L218" s="5"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" s="5"/>
       <c r="E219" s="5"/>
-      <c r="J219" s="5"/>
       <c r="K219" s="5"/>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L219" s="5"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" s="5"/>
       <c r="E233" s="5"/>
-      <c r="J233" s="5"/>
       <c r="K233" s="5"/>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L233" s="5"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" s="5"/>
       <c r="E234" s="5"/>
-      <c r="J234" s="5"/>
       <c r="K234" s="5"/>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L234" s="5"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" s="5"/>
       <c r="E235" s="5"/>
-      <c r="J235" s="5"/>
       <c r="K235" s="5"/>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L235" s="5"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" s="5"/>
       <c r="E236" s="5"/>
-      <c r="J236" s="5"/>
       <c r="K236" s="5"/>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L236" s="5"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" s="5"/>
       <c r="E237" s="5"/>
-      <c r="J237" s="5"/>
       <c r="K237" s="5"/>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L237" s="5"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" s="5"/>
       <c r="E238" s="5"/>
-      <c r="J238" s="5"/>
       <c r="K238" s="5"/>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L238" s="5"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" s="5"/>
       <c r="E239" s="5"/>
-      <c r="J239" s="5"/>
       <c r="K239" s="5"/>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L239" s="5"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" s="5"/>
       <c r="E240" s="5"/>
-      <c r="J240" s="5"/>
       <c r="K240" s="5"/>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L240" s="5"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" s="5"/>
       <c r="E241" s="5"/>
-      <c r="J241" s="5"/>
       <c r="K241" s="5"/>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L241" s="5"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" s="5"/>
       <c r="E242" s="5"/>
-      <c r="J242" s="5"/>
       <c r="K242" s="5"/>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L242" s="5"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="5"/>
       <c r="E243" s="5"/>
-      <c r="J243" s="5"/>
       <c r="K243" s="5"/>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L243" s="5"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" s="5"/>
       <c r="E244" s="5"/>
-      <c r="J244" s="5"/>
       <c r="K244" s="5"/>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L244" s="5"/>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" s="5"/>
       <c r="E245" s="5"/>
-      <c r="J245" s="5"/>
       <c r="K245" s="5"/>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L245" s="5"/>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" s="5"/>
       <c r="E246" s="5"/>
-      <c r="J246" s="5"/>
       <c r="K246" s="5"/>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L246" s="5"/>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" s="5"/>
       <c r="E247" s="5"/>
-      <c r="J247" s="5"/>
       <c r="K247" s="5"/>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L247" s="5"/>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" s="5"/>
       <c r="E248" s="5"/>
-      <c r="J248" s="5"/>
       <c r="K248" s="5"/>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L248" s="5"/>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" s="5"/>
       <c r="E249" s="5"/>
-      <c r="J249" s="5"/>
       <c r="K249" s="5"/>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L249" s="5"/>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="5"/>
       <c r="E250" s="5"/>
-      <c r="J250" s="5"/>
       <c r="K250" s="5"/>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L250" s="5"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="5"/>
       <c r="E251" s="5"/>
-      <c r="J251" s="5"/>
       <c r="K251" s="5"/>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L251" s="5"/>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" s="5"/>
       <c r="E252" s="5"/>
-      <c r="J252" s="5"/>
       <c r="K252" s="5"/>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L252" s="5"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" s="5"/>
       <c r="E253" s="5"/>
-      <c r="J253" s="5"/>
       <c r="K253" s="5"/>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L253" s="5"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" s="5"/>
       <c r="E254" s="5"/>
-      <c r="J254" s="5"/>
       <c r="K254" s="5"/>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L254" s="5"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" s="5"/>
       <c r="E255" s="5"/>
-      <c r="J255" s="5"/>
       <c r="K255" s="5"/>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L255" s="5"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" s="5"/>
       <c r="E256" s="5"/>
-      <c r="J256" s="5"/>
       <c r="K256" s="5"/>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L256" s="5"/>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" s="5"/>
       <c r="E257" s="5"/>
-      <c r="J257" s="5"/>
       <c r="K257" s="5"/>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L257" s="5"/>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" s="5"/>
       <c r="E258" s="5"/>
-      <c r="J258" s="5"/>
       <c r="K258" s="5"/>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L258" s="5"/>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" s="5"/>
       <c r="E259" s="5"/>
-      <c r="J259" s="5"/>
       <c r="K259" s="5"/>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L259" s="5"/>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" s="5"/>
       <c r="E260" s="5"/>
-      <c r="J260" s="5"/>
       <c r="K260" s="5"/>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L260" s="5"/>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" s="5"/>
       <c r="E261" s="5"/>
-      <c r="J261" s="5"/>
       <c r="K261" s="5"/>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L261" s="5"/>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" s="5"/>
       <c r="E262" s="5"/>
-      <c r="J262" s="5"/>
       <c r="K262" s="5"/>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L262" s="5"/>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263" s="5"/>
       <c r="E263" s="5"/>
-      <c r="J263" s="5"/>
       <c r="K263" s="5"/>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L263" s="5"/>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264" s="5"/>
       <c r="E264" s="5"/>
-      <c r="J264" s="5"/>
       <c r="K264" s="5"/>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L264" s="5"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265" s="5"/>
       <c r="E265" s="5"/>
-      <c r="J265" s="5"/>
       <c r="K265" s="5"/>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L265" s="5"/>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266" s="5"/>
       <c r="E266" s="5"/>
-      <c r="J266" s="5"/>
       <c r="K266" s="5"/>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L266" s="5"/>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267" s="5"/>
       <c r="E267" s="5"/>
-      <c r="J267" s="5"/>
       <c r="K267" s="5"/>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L267" s="5"/>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268" s="5"/>
       <c r="E268" s="5"/>
-      <c r="J268" s="5"/>
       <c r="K268" s="5"/>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L268" s="5"/>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269" s="5"/>
       <c r="E269" s="5"/>
-      <c r="J269" s="5"/>
       <c r="K269" s="5"/>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L269" s="5"/>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270" s="5"/>
       <c r="E270" s="5"/>
-      <c r="J270" s="5"/>
       <c r="K270" s="5"/>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L270" s="5"/>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271" s="5"/>
       <c r="E271" s="5"/>
-      <c r="J271" s="5"/>
       <c r="K271" s="5"/>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L271" s="5"/>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272" s="5"/>
       <c r="E272" s="5"/>
-      <c r="J272" s="5"/>
       <c r="K272" s="5"/>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L272" s="5"/>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" s="5"/>
       <c r="E273" s="5"/>
-      <c r="J273" s="5"/>
       <c r="K273" s="5"/>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L273" s="5"/>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" s="5"/>
       <c r="E274" s="5"/>
-      <c r="J274" s="5"/>
       <c r="K274" s="5"/>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L274" s="5"/>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" s="5"/>
       <c r="E275" s="5"/>
-      <c r="J275" s="5"/>
       <c r="K275" s="5"/>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L275" s="5"/>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" s="5"/>
       <c r="E276" s="5"/>
-      <c r="J276" s="5"/>
       <c r="K276" s="5"/>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L276" s="5"/>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" s="5"/>
       <c r="E277" s="5"/>
-      <c r="J277" s="5"/>
       <c r="K277" s="5"/>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L277" s="5"/>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" s="5"/>
       <c r="E278" s="5"/>
-      <c r="J278" s="5"/>
       <c r="K278" s="5"/>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L278" s="5"/>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" s="5"/>
       <c r="E279" s="5"/>
-      <c r="J279" s="5"/>
       <c r="K279" s="5"/>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L279" s="5"/>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" s="5"/>
       <c r="E280" s="5"/>
-      <c r="J280" s="5"/>
       <c r="K280" s="5"/>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L280" s="5"/>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" s="5"/>
       <c r="E281" s="5"/>
-      <c r="J281" s="5"/>
       <c r="K281" s="5"/>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L281" s="5"/>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" s="5"/>
       <c r="E282" s="5"/>
-      <c r="J282" s="5"/>
       <c r="K282" s="5"/>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L282" s="5"/>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" s="5"/>
       <c r="E283" s="5"/>
-      <c r="J283" s="5"/>
       <c r="K283" s="5"/>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L283" s="5"/>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284" s="5"/>
       <c r="E284" s="5"/>
-      <c r="J284" s="5"/>
       <c r="K284" s="5"/>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L284" s="5"/>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285" s="5"/>
       <c r="E285" s="5"/>
-      <c r="J285" s="5"/>
       <c r="K285" s="5"/>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L285" s="5"/>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" s="5"/>
       <c r="E286" s="5"/>
-      <c r="J286" s="5"/>
       <c r="K286" s="5"/>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L286" s="5"/>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" s="5"/>
       <c r="E287" s="5"/>
-      <c r="J287" s="5"/>
       <c r="K287" s="5"/>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L287" s="5"/>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" s="5"/>
       <c r="E288" s="5"/>
-      <c r="J288" s="5"/>
       <c r="K288" s="5"/>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L288" s="5"/>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" s="5"/>
       <c r="E289" s="5"/>
-      <c r="J289" s="5"/>
       <c r="K289" s="5"/>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L289" s="5"/>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" s="5"/>
       <c r="E290" s="5"/>
-      <c r="J290" s="5"/>
       <c r="K290" s="5"/>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L290" s="5"/>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291" s="5"/>
       <c r="E291" s="5"/>
-      <c r="J291" s="5"/>
       <c r="K291" s="5"/>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L291" s="5"/>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292" s="5"/>
       <c r="E292" s="5"/>
-      <c r="J292" s="5"/>
       <c r="K292" s="5"/>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L292" s="5"/>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293" s="5"/>
       <c r="E293" s="5"/>
-      <c r="J293" s="5"/>
       <c r="K293" s="5"/>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L293" s="5"/>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" s="5"/>
       <c r="E294" s="5"/>
-      <c r="J294" s="5"/>
       <c r="K294" s="5"/>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L294" s="5"/>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295" s="5"/>
       <c r="E295" s="5"/>
-      <c r="J295" s="5"/>
       <c r="K295" s="5"/>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L295" s="5"/>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296" s="5"/>
       <c r="E296" s="5"/>
-      <c r="J296" s="5"/>
       <c r="K296" s="5"/>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L296" s="5"/>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297" s="5"/>
       <c r="E297" s="5"/>
-      <c r="J297" s="5"/>
       <c r="K297" s="5"/>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L297" s="5"/>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298" s="5"/>
       <c r="E298" s="5"/>
-      <c r="J298" s="5"/>
       <c r="K298" s="5"/>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L298" s="5"/>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299" s="5"/>
       <c r="E299" s="5"/>
-      <c r="J299" s="5"/>
       <c r="K299" s="5"/>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L299" s="5"/>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300" s="5"/>
       <c r="E300" s="5"/>
-      <c r="J300" s="5"/>
       <c r="K300" s="5"/>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L300" s="5"/>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301" s="5"/>
       <c r="E301" s="5"/>
-      <c r="J301" s="5"/>
       <c r="K301" s="5"/>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L301" s="5"/>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302" s="5"/>
       <c r="E302" s="5"/>
-      <c r="J302" s="5"/>
       <c r="K302" s="5"/>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L302" s="5"/>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303" s="5"/>
       <c r="E303" s="5"/>
-      <c r="J303" s="5"/>
       <c r="K303" s="5"/>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L303" s="5"/>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304" s="5"/>
       <c r="E304" s="5"/>
-      <c r="J304" s="5"/>
       <c r="K304" s="5"/>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L304" s="5"/>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305" s="5"/>
       <c r="E305" s="5"/>
-      <c r="J305" s="5"/>
       <c r="K305" s="5"/>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L305" s="5"/>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306" s="5"/>
       <c r="E306" s="5"/>
-      <c r="J306" s="5"/>
       <c r="K306" s="5"/>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L306" s="5"/>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307" s="5"/>
       <c r="E307" s="5"/>
-      <c r="J307" s="5"/>
       <c r="K307" s="5"/>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L307" s="5"/>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308" s="5"/>
       <c r="E308" s="5"/>
-      <c r="J308" s="5"/>
       <c r="K308" s="5"/>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L308" s="5"/>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309" s="5"/>
       <c r="E309" s="5"/>
-      <c r="J309" s="5"/>
       <c r="K309" s="5"/>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L309" s="5"/>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310" s="5"/>
       <c r="E310" s="5"/>
-      <c r="J310" s="5"/>
       <c r="K310" s="5"/>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L310" s="5"/>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311" s="5"/>
       <c r="E311" s="5"/>
-      <c r="J311" s="5"/>
       <c r="K311" s="5"/>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L311" s="5"/>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312" s="5"/>
       <c r="E312" s="5"/>
-      <c r="J312" s="5"/>
       <c r="K312" s="5"/>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L312" s="5"/>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313" s="5"/>
       <c r="E313" s="5"/>
-      <c r="J313" s="5"/>
       <c r="K313" s="5"/>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L313" s="5"/>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314" s="5"/>
       <c r="E314" s="5"/>
-      <c r="J314" s="5"/>
       <c r="K314" s="5"/>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L314" s="5"/>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315" s="5"/>
       <c r="E315" s="5"/>
-      <c r="J315" s="5"/>
       <c r="K315" s="5"/>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L315" s="5"/>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A316" s="5"/>
       <c r="E316" s="5"/>
-      <c r="J316" s="5"/>
       <c r="K316" s="5"/>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L316" s="5"/>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A317" s="5"/>
       <c r="E317" s="5"/>
-      <c r="J317" s="5"/>
       <c r="K317" s="5"/>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L317" s="5"/>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A318" s="5"/>
       <c r="E318" s="5"/>
-      <c r="J318" s="5"/>
       <c r="K318" s="5"/>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L318" s="5"/>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A319" s="5"/>
       <c r="E319" s="5"/>
-      <c r="J319" s="5"/>
       <c r="K319" s="5"/>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L319" s="5"/>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320" s="5"/>
       <c r="E320" s="5"/>
-      <c r="J320" s="5"/>
       <c r="K320" s="5"/>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L320" s="5"/>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A321" s="5"/>
       <c r="E321" s="5"/>
-      <c r="J321" s="5"/>
       <c r="K321" s="5"/>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L321" s="5"/>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A322" s="5"/>
       <c r="E322" s="5"/>
-      <c r="J322" s="5"/>
       <c r="K322" s="5"/>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L322" s="5"/>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A323" s="5"/>
       <c r="E323" s="5"/>
-      <c r="J323" s="5"/>
       <c r="K323" s="5"/>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L323" s="5"/>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A324" s="5"/>
       <c r="E324" s="5"/>
-      <c r="J324" s="5"/>
       <c r="K324" s="5"/>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L324" s="5"/>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A325" s="5"/>
       <c r="E325" s="5"/>
-      <c r="J325" s="5"/>
       <c r="K325" s="5"/>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L325" s="5"/>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A326" s="5"/>
       <c r="E326" s="5"/>
-      <c r="J326" s="5"/>
       <c r="K326" s="5"/>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L326" s="5"/>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A327" s="5"/>
       <c r="E327" s="5"/>
-      <c r="J327" s="5"/>
       <c r="K327" s="5"/>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L327" s="5"/>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A328" s="5"/>
       <c r="E328" s="5"/>
-      <c r="J328" s="5"/>
       <c r="K328" s="5"/>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L328" s="5"/>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A329" s="5"/>
       <c r="E329" s="5"/>
-      <c r="J329" s="5"/>
       <c r="K329" s="5"/>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L329" s="5"/>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A330" s="5"/>
       <c r="E330" s="5"/>
-      <c r="J330" s="5"/>
       <c r="K330" s="5"/>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L330" s="5"/>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A331" s="5"/>
       <c r="E331" s="5"/>
-      <c r="J331" s="5"/>
       <c r="K331" s="5"/>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L331" s="5"/>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A332" s="5"/>
       <c r="E332" s="5"/>
-      <c r="J332" s="5"/>
       <c r="K332" s="5"/>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L332" s="5"/>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A333" s="5"/>
       <c r="E333" s="5"/>
-      <c r="J333" s="5"/>
       <c r="K333" s="5"/>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L333" s="5"/>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A334" s="5"/>
       <c r="E334" s="5"/>
-      <c r="J334" s="5"/>
       <c r="K334" s="5"/>
-    </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L334" s="5"/>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A335" s="5"/>
       <c r="E335" s="5"/>
-      <c r="J335" s="5"/>
       <c r="K335" s="5"/>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L335" s="5"/>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A336" s="5"/>
       <c r="E336" s="5"/>
-      <c r="J336" s="5"/>
       <c r="K336" s="5"/>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L336" s="5"/>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A337" s="5"/>
       <c r="E337" s="5"/>
-      <c r="J337" s="5"/>
       <c r="K337" s="5"/>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L337" s="5"/>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A338" s="5"/>
       <c r="E338" s="5"/>
-      <c r="J338" s="5"/>
       <c r="K338" s="5"/>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L338" s="5"/>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A339" s="5"/>
       <c r="E339" s="5"/>
-      <c r="J339" s="5"/>
       <c r="K339" s="5"/>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L339" s="5"/>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A340" s="5"/>
       <c r="E340" s="5"/>
-      <c r="J340" s="5"/>
       <c r="K340" s="5"/>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L340" s="5"/>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A341" s="5"/>
       <c r="E341" s="5"/>
-      <c r="J341" s="5"/>
       <c r="K341" s="5"/>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L341" s="5"/>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A342" s="5"/>
       <c r="E342" s="5"/>
-      <c r="J342" s="5"/>
       <c r="K342" s="5"/>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L342" s="5"/>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A343" s="5"/>
       <c r="E343" s="5"/>
-      <c r="J343" s="5"/>
       <c r="K343" s="5"/>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L343" s="5"/>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A344" s="5"/>
       <c r="E344" s="5"/>
-      <c r="J344" s="5"/>
       <c r="K344" s="5"/>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L344" s="5"/>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A345" s="5"/>
       <c r="E345" s="5"/>
-      <c r="J345" s="5"/>
       <c r="K345" s="5"/>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L345" s="5"/>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A346" s="5"/>
       <c r="E346" s="5"/>
-      <c r="J346" s="5"/>
       <c r="K346" s="5"/>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L346" s="5"/>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A347" s="5"/>
       <c r="E347" s="5"/>
-      <c r="J347" s="5"/>
       <c r="K347" s="5"/>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L347" s="5"/>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A348" s="5"/>
       <c r="E348" s="5"/>
-      <c r="J348" s="5"/>
       <c r="K348" s="5"/>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L348" s="5"/>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A349" s="5"/>
       <c r="E349" s="5"/>
-      <c r="J349" s="5"/>
       <c r="K349" s="5"/>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L349" s="5"/>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A350" s="5"/>
       <c r="E350" s="5"/>
-      <c r="J350" s="5"/>
       <c r="K350" s="5"/>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L350" s="5"/>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A351" s="5"/>
       <c r="E351" s="5"/>
-      <c r="J351" s="5"/>
       <c r="K351" s="5"/>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L351" s="5"/>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A352" s="5"/>
       <c r="E352" s="5"/>
-      <c r="J352" s="5"/>
       <c r="K352" s="5"/>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L352" s="5"/>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A353" s="5"/>
       <c r="E353" s="5"/>
-      <c r="J353" s="5"/>
       <c r="K353" s="5"/>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L353" s="5"/>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354" s="5"/>
       <c r="E354" s="5"/>
-      <c r="J354" s="5"/>
       <c r="K354" s="5"/>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L354" s="5"/>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A355" s="5"/>
       <c r="E355" s="5"/>
-      <c r="J355" s="5"/>
       <c r="K355" s="5"/>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L355" s="5"/>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356" s="5"/>
       <c r="E356" s="5"/>
-      <c r="J356" s="5"/>
       <c r="K356" s="5"/>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L356" s="5"/>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357" s="5"/>
       <c r="E357" s="5"/>
-      <c r="J357" s="5"/>
       <c r="K357" s="5"/>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L357" s="5"/>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358" s="5"/>
       <c r="E358" s="5"/>
-      <c r="J358" s="5"/>
       <c r="K358" s="5"/>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L358" s="5"/>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359" s="5"/>
       <c r="E359" s="5"/>
-      <c r="J359" s="5"/>
       <c r="K359" s="5"/>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L359" s="5"/>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360" s="5"/>
       <c r="E360" s="5"/>
-      <c r="J360" s="5"/>
       <c r="K360" s="5"/>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L360" s="5"/>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361" s="5"/>
       <c r="E361" s="5"/>
-      <c r="J361" s="5"/>
       <c r="K361" s="5"/>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L361" s="5"/>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362" s="5"/>
       <c r="E362" s="5"/>
-      <c r="J362" s="5"/>
       <c r="K362" s="5"/>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L362" s="5"/>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363" s="5"/>
       <c r="E363" s="5"/>
-      <c r="J363" s="5"/>
       <c r="K363" s="5"/>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L363" s="5"/>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364" s="5"/>
       <c r="E364" s="5"/>
-      <c r="J364" s="5"/>
       <c r="K364" s="5"/>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L364" s="5"/>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365" s="5"/>
       <c r="E365" s="5"/>
-      <c r="J365" s="5"/>
       <c r="K365" s="5"/>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L365" s="5"/>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A366" s="5"/>
       <c r="E366" s="5"/>
-      <c r="J366" s="5"/>
       <c r="K366" s="5"/>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L366" s="5"/>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A367" s="5"/>
       <c r="E367" s="5"/>
-      <c r="J367" s="5"/>
       <c r="K367" s="5"/>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L367" s="5"/>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A368" s="5"/>
       <c r="E368" s="5"/>
-      <c r="J368" s="5"/>
       <c r="K368" s="5"/>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L368" s="5"/>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A369" s="5"/>
       <c r="E369" s="5"/>
-      <c r="J369" s="5"/>
       <c r="K369" s="5"/>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L369" s="5"/>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A370" s="5"/>
       <c r="E370" s="5"/>
-      <c r="J370" s="5"/>
       <c r="K370" s="5"/>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L370" s="5"/>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A371" s="5"/>
       <c r="E371" s="5"/>
-      <c r="J371" s="5"/>
       <c r="K371" s="5"/>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L371" s="5"/>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A372" s="5"/>
       <c r="E372" s="5"/>
-      <c r="J372" s="5"/>
       <c r="K372" s="5"/>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L372" s="5"/>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A373" s="5"/>
       <c r="E373" s="5"/>
-      <c r="J373" s="5"/>
       <c r="K373" s="5"/>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L373" s="5"/>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A374" s="5"/>
       <c r="E374" s="5"/>
-      <c r="J374" s="5"/>
       <c r="K374" s="5"/>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L374" s="5"/>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A375" s="5"/>
       <c r="E375" s="5"/>
-      <c r="J375" s="5"/>
       <c r="K375" s="5"/>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L375" s="5"/>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A376" s="5"/>
       <c r="E376" s="5"/>
-      <c r="J376" s="5"/>
       <c r="K376" s="5"/>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L376" s="5"/>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A377" s="5"/>
       <c r="E377" s="5"/>
-      <c r="J377" s="5"/>
       <c r="K377" s="5"/>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L377" s="5"/>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A378" s="5"/>
       <c r="E378" s="5"/>
-      <c r="J378" s="5"/>
       <c r="K378" s="5"/>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L378" s="5"/>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A379" s="5"/>
       <c r="E379" s="5"/>
-      <c r="J379" s="5"/>
       <c r="K379" s="5"/>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L379" s="5"/>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A380" s="5"/>
       <c r="E380" s="5"/>
-      <c r="J380" s="5"/>
       <c r="K380" s="5"/>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L380" s="5"/>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A381" s="5"/>
       <c r="E381" s="5"/>
-      <c r="J381" s="5"/>
       <c r="K381" s="5"/>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L381" s="5"/>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A382" s="5"/>
       <c r="E382" s="5"/>
-      <c r="J382" s="5"/>
       <c r="K382" s="5"/>
-    </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L382" s="5"/>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A383" s="5"/>
       <c r="E383" s="5"/>
-      <c r="J383" s="5"/>
       <c r="K383" s="5"/>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L383" s="5"/>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A384" s="5"/>
       <c r="E384" s="5"/>
-      <c r="J384" s="5"/>
       <c r="K384" s="5"/>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L384" s="5"/>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A385" s="5"/>
       <c r="E385" s="5"/>
-      <c r="J385" s="5"/>
       <c r="K385" s="5"/>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L385" s="5"/>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A386" s="5"/>
       <c r="E386" s="5"/>
-      <c r="J386" s="5"/>
       <c r="K386" s="5"/>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L386" s="5"/>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A387" s="5"/>
       <c r="E387" s="5"/>
-      <c r="J387" s="5"/>
       <c r="K387" s="5"/>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L387" s="5"/>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A388" s="5"/>
       <c r="E388" s="5"/>
-      <c r="J388" s="5"/>
       <c r="K388" s="5"/>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L388" s="5"/>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A389" s="5"/>
       <c r="E389" s="5"/>
-      <c r="J389" s="5"/>
       <c r="K389" s="5"/>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L389" s="5"/>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A390" s="5"/>
       <c r="E390" s="5"/>
-      <c r="J390" s="5"/>
       <c r="K390" s="5"/>
-    </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L390" s="5"/>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A391" s="5"/>
       <c r="E391" s="5"/>
-      <c r="J391" s="5"/>
       <c r="K391" s="5"/>
-    </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L391" s="5"/>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A392" s="5"/>
       <c r="E392" s="5"/>
-      <c r="J392" s="5"/>
       <c r="K392" s="5"/>
-    </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L392" s="5"/>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A393" s="5"/>
       <c r="E393" s="5"/>
-      <c r="J393" s="5"/>
       <c r="K393" s="5"/>
-    </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L393" s="5"/>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A394" s="5"/>
       <c r="E394" s="5"/>
-      <c r="J394" s="5"/>
       <c r="K394" s="5"/>
-    </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L394" s="5"/>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A395" s="5"/>
       <c r="E395" s="5"/>
-      <c r="J395" s="5"/>
       <c r="K395" s="5"/>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L395" s="5"/>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A396" s="5"/>
       <c r="E396" s="5"/>
-      <c r="J396" s="5"/>
       <c r="K396" s="5"/>
-    </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L396" s="5"/>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A397" s="5"/>
       <c r="E397" s="5"/>
-      <c r="J397" s="5"/>
       <c r="K397" s="5"/>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L397" s="5"/>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A398" s="5"/>
       <c r="E398" s="5"/>
-      <c r="J398" s="5"/>
       <c r="K398" s="5"/>
-    </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L398" s="5"/>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A399" s="5"/>
       <c r="E399" s="5"/>
-      <c r="J399" s="5"/>
       <c r="K399" s="5"/>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L399" s="5"/>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A400" s="5"/>
       <c r="E400" s="5"/>
-      <c r="J400" s="5"/>
       <c r="K400" s="5"/>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L400" s="5"/>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A401" s="5"/>
       <c r="E401" s="5"/>
-      <c r="J401" s="5"/>
       <c r="K401" s="5"/>
-    </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L401" s="5"/>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A402" s="5"/>
       <c r="E402" s="5"/>
-      <c r="J402" s="5"/>
       <c r="K402" s="5"/>
-    </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L402" s="5"/>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A403" s="5"/>
       <c r="E403" s="5"/>
-      <c r="J403" s="5"/>
       <c r="K403" s="5"/>
-    </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L403" s="5"/>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A404" s="5"/>
       <c r="E404" s="5"/>
-      <c r="J404" s="5"/>
       <c r="K404" s="5"/>
-    </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L404" s="5"/>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A405" s="5"/>
       <c r="E405" s="5"/>
-      <c r="J405" s="5"/>
       <c r="K405" s="5"/>
-    </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L405" s="5"/>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A406" s="5"/>
       <c r="E406" s="5"/>
-      <c r="J406" s="5"/>
       <c r="K406" s="5"/>
-    </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L406" s="5"/>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A407" s="5"/>
       <c r="E407" s="5"/>
-      <c r="J407" s="5"/>
       <c r="K407" s="5"/>
-    </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L407" s="5"/>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A408" s="5"/>
       <c r="E408" s="5"/>
-      <c r="J408" s="5"/>
       <c r="K408" s="5"/>
-    </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L408" s="5"/>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A409" s="5"/>
       <c r="E409" s="5"/>
-      <c r="J409" s="5"/>
       <c r="K409" s="5"/>
-    </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L409" s="5"/>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A410" s="5"/>
       <c r="E410" s="5"/>
-      <c r="J410" s="5"/>
       <c r="K410" s="5"/>
-    </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L410" s="5"/>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A411" s="5"/>
       <c r="E411" s="5"/>
-      <c r="J411" s="5"/>
       <c r="K411" s="5"/>
-    </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L411" s="5"/>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A412" s="5"/>
       <c r="E412" s="5"/>
-      <c r="J412" s="5"/>
       <c r="K412" s="5"/>
-    </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L412" s="5"/>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A413" s="5"/>
       <c r="E413" s="5"/>
-      <c r="J413" s="5"/>
       <c r="K413" s="5"/>
-    </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L413" s="5"/>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A414" s="5"/>
       <c r="E414" s="5"/>
-      <c r="J414" s="5"/>
       <c r="K414" s="5"/>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L414" s="5"/>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A415" s="5"/>
       <c r="E415" s="5"/>
-      <c r="J415" s="5"/>
       <c r="K415" s="5"/>
-    </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L415" s="5"/>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A416" s="5"/>
       <c r="E416" s="5"/>
-      <c r="J416" s="5"/>
       <c r="K416" s="5"/>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L416" s="5"/>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A417" s="5"/>
       <c r="E417" s="5"/>
-      <c r="J417" s="5"/>
       <c r="K417" s="5"/>
-    </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L417" s="5"/>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A418" s="5"/>
       <c r="E418" s="5"/>
-      <c r="J418" s="5"/>
       <c r="K418" s="5"/>
-    </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L418" s="5"/>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A419" s="5"/>
       <c r="E419" s="5"/>
-      <c r="J419" s="5"/>
       <c r="K419" s="5"/>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L419" s="5"/>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A420" s="5"/>
       <c r="E420" s="5"/>
-      <c r="J420" s="5"/>
       <c r="K420" s="5"/>
-    </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L420" s="5"/>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A421" s="5"/>
       <c r="E421" s="5"/>
-      <c r="J421" s="5"/>
       <c r="K421" s="5"/>
-    </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L421" s="5"/>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A422" s="5"/>
       <c r="E422" s="5"/>
-      <c r="J422" s="5"/>
       <c r="K422" s="5"/>
-    </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L422" s="5"/>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A423" s="5"/>
       <c r="E423" s="5"/>
-      <c r="J423" s="5"/>
       <c r="K423" s="5"/>
-    </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L423" s="5"/>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A424" s="5"/>
       <c r="E424" s="5"/>
-      <c r="J424" s="5"/>
       <c r="K424" s="5"/>
-    </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L424" s="5"/>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A425" s="5"/>
       <c r="E425" s="5"/>
-      <c r="J425" s="5"/>
       <c r="K425" s="5"/>
-    </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L425" s="5"/>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A426" s="5"/>
       <c r="E426" s="5"/>
-      <c r="J426" s="5"/>
       <c r="K426" s="5"/>
-    </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L426" s="5"/>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A427" s="5"/>
       <c r="E427" s="5"/>
-      <c r="J427" s="5"/>
       <c r="K427" s="5"/>
-    </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L427" s="5"/>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A428" s="5"/>
       <c r="E428" s="5"/>
-      <c r="J428" s="5"/>
       <c r="K428" s="5"/>
-    </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L428" s="5"/>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A429" s="5"/>
       <c r="E429" s="5"/>
-      <c r="J429" s="5"/>
       <c r="K429" s="5"/>
-    </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L429" s="5"/>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A430" s="5"/>
       <c r="E430" s="5"/>
-      <c r="J430" s="5"/>
       <c r="K430" s="5"/>
-    </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L430" s="5"/>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A431" s="5"/>
       <c r="E431" s="5"/>
-      <c r="J431" s="5"/>
       <c r="K431" s="5"/>
-    </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L431" s="5"/>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A432" s="5"/>
       <c r="E432" s="5"/>
-      <c r="J432" s="5"/>
       <c r="K432" s="5"/>
-    </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L432" s="5"/>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A433" s="5"/>
       <c r="E433" s="5"/>
-      <c r="J433" s="5"/>
       <c r="K433" s="5"/>
-    </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L433" s="5"/>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A434" s="5"/>
       <c r="E434" s="5"/>
-      <c r="J434" s="5"/>
       <c r="K434" s="5"/>
-    </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L434" s="5"/>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A435" s="5"/>
       <c r="E435" s="5"/>
-      <c r="J435" s="5"/>
       <c r="K435" s="5"/>
-    </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L435" s="5"/>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A436" s="5"/>
       <c r="E436" s="5"/>
-      <c r="J436" s="5"/>
       <c r="K436" s="5"/>
-    </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L436" s="5"/>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A437" s="5"/>
       <c r="E437" s="5"/>
-      <c r="J437" s="5"/>
       <c r="K437" s="5"/>
-    </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L437" s="5"/>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A438" s="5"/>
       <c r="E438" s="5"/>
-      <c r="J438" s="5"/>
       <c r="K438" s="5"/>
-    </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L438" s="5"/>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A439" s="5"/>
       <c r="E439" s="5"/>
-      <c r="J439" s="5"/>
       <c r="K439" s="5"/>
-    </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L439" s="5"/>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A440" s="5"/>
       <c r="E440" s="5"/>
-      <c r="J440" s="5"/>
       <c r="K440" s="5"/>
-    </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L440" s="5"/>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A441" s="5"/>
       <c r="E441" s="5"/>
-      <c r="J441" s="5"/>
       <c r="K441" s="5"/>
-    </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L441" s="5"/>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A442" s="5"/>
       <c r="E442" s="5"/>
-      <c r="J442" s="5"/>
       <c r="K442" s="5"/>
-    </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L442" s="5"/>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A443" s="5"/>
       <c r="E443" s="5"/>
-      <c r="J443" s="5"/>
       <c r="K443" s="5"/>
-    </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L443" s="5"/>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A444" s="5"/>
       <c r="E444" s="5"/>
-      <c r="J444" s="5"/>
       <c r="K444" s="5"/>
-    </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L444" s="5"/>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A445" s="5"/>
       <c r="E445" s="5"/>
-      <c r="J445" s="5"/>
       <c r="K445" s="5"/>
-    </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L445" s="5"/>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A446" s="5"/>
       <c r="E446" s="5"/>
-      <c r="J446" s="5"/>
       <c r="K446" s="5"/>
-    </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L446" s="5"/>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A447" s="5"/>
       <c r="E447" s="5"/>
-      <c r="J447" s="5"/>
       <c r="K447" s="5"/>
-    </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L447" s="5"/>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A448" s="5"/>
       <c r="E448" s="5"/>
-      <c r="J448" s="5"/>
       <c r="K448" s="5"/>
-    </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L448" s="5"/>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A449" s="5"/>
       <c r="E449" s="5"/>
-      <c r="J449" s="5"/>
       <c r="K449" s="5"/>
-    </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L449" s="5"/>
+    </row>
+    <row r="621" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A621" s="5"/>
       <c r="E621" s="5"/>
-      <c r="J621" s="5"/>
       <c r="K621" s="5"/>
-    </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L621" s="5"/>
+    </row>
+    <row r="622" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A622" s="5"/>
       <c r="E622" s="5"/>
-      <c r="J622" s="5"/>
       <c r="K622" s="5"/>
-    </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L622" s="5"/>
+    </row>
+    <row r="623" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A623" s="5"/>
       <c r="E623" s="5"/>
-      <c r="J623" s="5"/>
       <c r="K623" s="5"/>
-    </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L623" s="5"/>
+    </row>
+    <row r="624" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A624" s="5"/>
       <c r="E624" s="5"/>
-      <c r="J624" s="5"/>
       <c r="K624" s="5"/>
-    </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L624" s="5"/>
+    </row>
+    <row r="625" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A625" s="5"/>
       <c r="E625" s="5"/>
-      <c r="J625" s="5"/>
       <c r="K625" s="5"/>
-    </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L625" s="5"/>
+    </row>
+    <row r="626" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A626" s="5"/>
       <c r="E626" s="5"/>
-      <c r="J626" s="5"/>
       <c r="K626" s="5"/>
-    </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L626" s="5"/>
+    </row>
+    <row r="627" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A627" s="5"/>
       <c r="E627" s="5"/>
-      <c r="J627" s="5"/>
       <c r="K627" s="5"/>
-    </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L627" s="5"/>
+    </row>
+    <row r="628" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A628" s="5"/>
       <c r="E628" s="5"/>
-      <c r="J628" s="5"/>
       <c r="K628" s="5"/>
-    </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L628" s="5"/>
+    </row>
+    <row r="629" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A629" s="5"/>
       <c r="E629" s="5"/>
-      <c r="J629" s="5"/>
       <c r="K629" s="5"/>
-    </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L629" s="5"/>
+    </row>
+    <row r="630" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A630" s="5"/>
       <c r="E630" s="5"/>
-      <c r="J630" s="5"/>
       <c r="K630" s="5"/>
-    </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L630" s="5"/>
+    </row>
+    <row r="631" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A631" s="5"/>
       <c r="E631" s="5"/>
-      <c r="J631" s="5"/>
       <c r="K631" s="5"/>
-    </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L631" s="5"/>
+    </row>
+    <row r="632" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A632" s="5"/>
       <c r="E632" s="5"/>
-      <c r="J632" s="5"/>
       <c r="K632" s="5"/>
-    </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L632" s="5"/>
+    </row>
+    <row r="633" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A633" s="5"/>
       <c r="E633" s="5"/>
-      <c r="J633" s="5"/>
       <c r="K633" s="5"/>
-    </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L633" s="5"/>
+    </row>
+    <row r="634" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A634" s="5"/>
       <c r="E634" s="5"/>
-      <c r="J634" s="5"/>
       <c r="K634" s="5"/>
-    </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L634" s="5"/>
+    </row>
+    <row r="635" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A635" s="5"/>
       <c r="E635" s="5"/>
-      <c r="J635" s="5"/>
       <c r="K635" s="5"/>
-    </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L635" s="5"/>
+    </row>
+    <row r="636" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A636" s="5"/>
       <c r="E636" s="5"/>
-      <c r="J636" s="5"/>
       <c r="K636" s="5"/>
-    </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L636" s="5"/>
+    </row>
+    <row r="637" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A637" s="5"/>
       <c r="E637" s="5"/>
-      <c r="J637" s="5"/>
       <c r="K637" s="5"/>
-    </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L637" s="5"/>
+    </row>
+    <row r="638" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A638" s="5"/>
       <c r="E638" s="5"/>
-      <c r="J638" s="5"/>
       <c r="K638" s="5"/>
-    </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L638" s="5"/>
+    </row>
+    <row r="639" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A639" s="5"/>
       <c r="E639" s="5"/>
-      <c r="J639" s="5"/>
       <c r="K639" s="5"/>
-    </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L639" s="5"/>
+    </row>
+    <row r="640" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A640" s="5"/>
       <c r="E640" s="5"/>
-      <c r="J640" s="5"/>
       <c r="K640" s="5"/>
-    </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L640" s="5"/>
+    </row>
+    <row r="641" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A641" s="5"/>
       <c r="E641" s="5"/>
-      <c r="J641" s="5"/>
       <c r="K641" s="5"/>
-    </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L641" s="5"/>
+    </row>
+    <row r="642" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A642" s="5"/>
       <c r="E642" s="5"/>
-      <c r="J642" s="5"/>
       <c r="K642" s="5"/>
-    </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L642" s="5"/>
+    </row>
+    <row r="643" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A643" s="5"/>
       <c r="E643" s="5"/>
-      <c r="J643" s="5"/>
       <c r="K643" s="5"/>
-    </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L643" s="5"/>
+    </row>
+    <row r="644" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A644" s="5"/>
       <c r="E644" s="5"/>
-      <c r="J644" s="5"/>
       <c r="K644" s="5"/>
-    </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L644" s="5"/>
+    </row>
+    <row r="645" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A645" s="5"/>
       <c r="E645" s="5"/>
-      <c r="J645" s="5"/>
       <c r="K645" s="5"/>
-    </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L645" s="5"/>
+    </row>
+    <row r="646" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A646" s="5"/>
       <c r="E646" s="5"/>
-      <c r="J646" s="5"/>
       <c r="K646" s="5"/>
-    </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L646" s="5"/>
+    </row>
+    <row r="647" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A647" s="5"/>
       <c r="E647" s="5"/>
-      <c r="J647" s="5"/>
       <c r="K647" s="5"/>
-    </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L647" s="5"/>
+    </row>
+    <row r="648" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A648" s="5"/>
       <c r="E648" s="5"/>
-      <c r="J648" s="5"/>
       <c r="K648" s="5"/>
-    </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L648" s="5"/>
+    </row>
+    <row r="649" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A649" s="5"/>
       <c r="E649" s="5"/>
-      <c r="J649" s="5"/>
       <c r="K649" s="5"/>
-    </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L649" s="5"/>
+    </row>
+    <row r="650" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A650" s="5"/>
       <c r="E650" s="5"/>
-      <c r="J650" s="5"/>
       <c r="K650" s="5"/>
-    </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L650" s="5"/>
+    </row>
+    <row r="651" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A651" s="5"/>
       <c r="E651" s="5"/>
-      <c r="J651" s="5"/>
       <c r="K651" s="5"/>
-    </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L651" s="5"/>
+    </row>
+    <row r="652" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A652" s="5"/>
       <c r="E652" s="5"/>
-      <c r="J652" s="5"/>
       <c r="K652" s="5"/>
-    </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L652" s="5"/>
+    </row>
+    <row r="653" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A653" s="5"/>
       <c r="E653" s="5"/>
-      <c r="J653" s="5"/>
       <c r="K653" s="5"/>
-    </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L653" s="5"/>
+    </row>
+    <row r="654" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A654" s="5"/>
       <c r="E654" s="5"/>
-      <c r="J654" s="5"/>
       <c r="K654" s="5"/>
-    </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L654" s="5"/>
+    </row>
+    <row r="655" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A655" s="5"/>
       <c r="E655" s="5"/>
-      <c r="J655" s="5"/>
       <c r="K655" s="5"/>
-    </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L655" s="5"/>
+    </row>
+    <row r="656" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A656" s="5"/>
       <c r="E656" s="5"/>
-      <c r="J656" s="5"/>
       <c r="K656" s="5"/>
-    </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L656" s="5"/>
+    </row>
+    <row r="657" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A657" s="5"/>
       <c r="E657" s="5"/>
-      <c r="J657" s="5"/>
       <c r="K657" s="5"/>
-    </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L657" s="5"/>
+    </row>
+    <row r="658" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A658" s="5"/>
       <c r="E658" s="5"/>
-      <c r="J658" s="5"/>
       <c r="K658" s="5"/>
-    </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L658" s="5"/>
+    </row>
+    <row r="659" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A659" s="5"/>
       <c r="E659" s="5"/>
-      <c r="J659" s="5"/>
       <c r="K659" s="5"/>
-    </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L659" s="5"/>
+    </row>
+    <row r="660" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A660" s="5"/>
       <c r="E660" s="5"/>
-      <c r="J660" s="5"/>
       <c r="K660" s="5"/>
-    </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L660" s="5"/>
+    </row>
+    <row r="661" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A661" s="5"/>
       <c r="E661" s="5"/>
-      <c r="J661" s="5"/>
       <c r="K661" s="5"/>
-    </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L661" s="5"/>
+    </row>
+    <row r="662" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A662" s="5"/>
       <c r="E662" s="5"/>
-      <c r="J662" s="5"/>
       <c r="K662" s="5"/>
-    </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L662" s="5"/>
+    </row>
+    <row r="663" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A663" s="5"/>
       <c r="E663" s="5"/>
-      <c r="J663" s="5"/>
       <c r="K663" s="5"/>
-    </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L663" s="5"/>
+    </row>
+    <row r="664" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A664" s="5"/>
       <c r="E664" s="5"/>
-      <c r="J664" s="5"/>
       <c r="K664" s="5"/>
-    </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L664" s="5"/>
+    </row>
+    <row r="665" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A665" s="5"/>
       <c r="E665" s="5"/>
-      <c r="J665" s="5"/>
       <c r="K665" s="5"/>
-    </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L665" s="5"/>
+    </row>
+    <row r="666" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A666" s="5"/>
       <c r="E666" s="5"/>
-      <c r="J666" s="5"/>
       <c r="K666" s="5"/>
-    </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L666" s="5"/>
+    </row>
+    <row r="667" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A667" s="5"/>
       <c r="E667" s="5"/>
-      <c r="J667" s="5"/>
       <c r="K667" s="5"/>
-    </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L667" s="5"/>
+    </row>
+    <row r="668" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A668" s="5"/>
       <c r="E668" s="5"/>
-      <c r="J668" s="5"/>
       <c r="K668" s="5"/>
-    </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L668" s="5"/>
+    </row>
+    <row r="669" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A669" s="5"/>
       <c r="E669" s="5"/>
-      <c r="J669" s="5"/>
       <c r="K669" s="5"/>
-    </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L669" s="5"/>
+    </row>
+    <row r="670" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A670" s="5"/>
       <c r="E670" s="5"/>
-      <c r="J670" s="5"/>
       <c r="K670" s="5"/>
-    </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L670" s="5"/>
+    </row>
+    <row r="671" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A671" s="5"/>
       <c r="E671" s="5"/>
-      <c r="J671" s="5"/>
       <c r="K671" s="5"/>
-    </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L671" s="5"/>
+    </row>
+    <row r="672" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A672" s="5"/>
       <c r="E672" s="5"/>
-      <c r="J672" s="5"/>
       <c r="K672" s="5"/>
-    </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L672" s="5"/>
+    </row>
+    <row r="673" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A673" s="5"/>
       <c r="E673" s="5"/>
-      <c r="J673" s="5"/>
       <c r="K673" s="5"/>
-    </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L673" s="5"/>
+    </row>
+    <row r="674" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A674" s="5"/>
       <c r="E674" s="5"/>
-      <c r="J674" s="5"/>
       <c r="K674" s="5"/>
-    </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L674" s="5"/>
+    </row>
+    <row r="675" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A675" s="5"/>
       <c r="E675" s="5"/>
-      <c r="J675" s="5"/>
       <c r="K675" s="5"/>
-    </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L675" s="5"/>
+    </row>
+    <row r="676" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A676" s="5"/>
       <c r="E676" s="5"/>
-      <c r="J676" s="5"/>
       <c r="K676" s="5"/>
-    </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L676" s="5"/>
+    </row>
+    <row r="677" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A677" s="5"/>
       <c r="E677" s="5"/>
-      <c r="J677" s="5"/>
       <c r="K677" s="5"/>
-    </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L677" s="5"/>
+    </row>
+    <row r="678" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A678" s="5"/>
       <c r="E678" s="5"/>
-      <c r="J678" s="5"/>
       <c r="K678" s="5"/>
-    </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L678" s="5"/>
+    </row>
+    <row r="679" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A679" s="5"/>
       <c r="E679" s="5"/>
-      <c r="J679" s="5"/>
       <c r="K679" s="5"/>
-    </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L679" s="5"/>
+    </row>
+    <row r="680" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A680" s="5"/>
       <c r="E680" s="5"/>
-      <c r="J680" s="5"/>
       <c r="K680" s="5"/>
-    </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L680" s="5"/>
+    </row>
+    <row r="681" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A681" s="5"/>
       <c r="E681" s="5"/>
-      <c r="J681" s="5"/>
       <c r="K681" s="5"/>
-    </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L681" s="5"/>
+    </row>
+    <row r="682" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A682" s="5"/>
       <c r="E682" s="5"/>
-      <c r="J682" s="5"/>
       <c r="K682" s="5"/>
-    </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L682" s="5"/>
+    </row>
+    <row r="683" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A683" s="5"/>
       <c r="E683" s="5"/>
-      <c r="J683" s="5"/>
       <c r="K683" s="5"/>
-    </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L683" s="5"/>
+    </row>
+    <row r="684" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A684" s="5"/>
       <c r="E684" s="5"/>
-      <c r="J684" s="5"/>
       <c r="K684" s="5"/>
-    </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L684" s="5"/>
+    </row>
+    <row r="685" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A685" s="5"/>
       <c r="E685" s="5"/>
-      <c r="J685" s="5"/>
       <c r="K685" s="5"/>
-    </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L685" s="5"/>
+    </row>
+    <row r="686" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A686" s="5"/>
       <c r="E686" s="5"/>
-      <c r="J686" s="5"/>
       <c r="K686" s="5"/>
-    </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L686" s="5"/>
+    </row>
+    <row r="687" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A687" s="5"/>
       <c r="E687" s="5"/>
-      <c r="J687" s="5"/>
       <c r="K687" s="5"/>
-    </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L687" s="5"/>
+    </row>
+    <row r="688" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A688" s="5"/>
       <c r="E688" s="5"/>
-      <c r="J688" s="5"/>
       <c r="K688" s="5"/>
-    </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L688" s="5"/>
+    </row>
+    <row r="689" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A689" s="5"/>
       <c r="E689" s="5"/>
-      <c r="J689" s="5"/>
       <c r="K689" s="5"/>
-    </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L689" s="5"/>
+    </row>
+    <row r="690" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A690" s="5"/>
       <c r="E690" s="5"/>
-      <c r="J690" s="5"/>
       <c r="K690" s="5"/>
-    </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L690" s="5"/>
+    </row>
+    <row r="691" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A691" s="5"/>
       <c r="E691" s="5"/>
-      <c r="J691" s="5"/>
       <c r="K691" s="5"/>
-    </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L691" s="5"/>
+    </row>
+    <row r="692" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A692" s="5"/>
       <c r="E692" s="5"/>
-      <c r="J692" s="5"/>
       <c r="K692" s="5"/>
-    </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L692" s="5"/>
+    </row>
+    <row r="693" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A693" s="5"/>
       <c r="E693" s="5"/>
-      <c r="J693" s="5"/>
       <c r="K693" s="5"/>
-    </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L693" s="5"/>
+    </row>
+    <row r="694" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A694" s="5"/>
       <c r="E694" s="5"/>
-      <c r="J694" s="5"/>
       <c r="K694" s="5"/>
-    </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L694" s="5"/>
+    </row>
+    <row r="695" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A695" s="5"/>
       <c r="E695" s="5"/>
-      <c r="J695" s="5"/>
       <c r="K695" s="5"/>
-    </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L695" s="5"/>
+    </row>
+    <row r="696" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A696" s="5"/>
       <c r="E696" s="5"/>
-      <c r="J696" s="5"/>
       <c r="K696" s="5"/>
-    </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L696" s="5"/>
+    </row>
+    <row r="697" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A697" s="5"/>
       <c r="E697" s="5"/>
-      <c r="J697" s="5"/>
       <c r="K697" s="5"/>
-    </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L697" s="5"/>
+    </row>
+    <row r="698" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A698" s="5"/>
       <c r="E698" s="5"/>
-      <c r="J698" s="5"/>
       <c r="K698" s="5"/>
-    </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L698" s="5"/>
+    </row>
+    <row r="699" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A699" s="5"/>
       <c r="E699" s="5"/>
-      <c r="J699" s="5"/>
       <c r="K699" s="5"/>
-    </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L699" s="5"/>
+    </row>
+    <row r="700" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A700" s="5"/>
       <c r="E700" s="5"/>
-      <c r="J700" s="5"/>
       <c r="K700" s="5"/>
-    </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L700" s="5"/>
+    </row>
+    <row r="701" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A701" s="5"/>
       <c r="E701" s="5"/>
-      <c r="J701" s="5"/>
       <c r="K701" s="5"/>
-    </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L701" s="5"/>
+    </row>
+    <row r="702" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A702" s="5"/>
       <c r="E702" s="5"/>
-      <c r="J702" s="5"/>
       <c r="K702" s="5"/>
-    </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L702" s="5"/>
+    </row>
+    <row r="703" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A703" s="5"/>
       <c r="E703" s="5"/>
-      <c r="J703" s="5"/>
       <c r="K703" s="5"/>
-    </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L703" s="5"/>
+    </row>
+    <row r="704" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A704" s="5"/>
       <c r="E704" s="5"/>
-      <c r="J704" s="5"/>
       <c r="K704" s="5"/>
-    </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L704" s="5"/>
+    </row>
+    <row r="705" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A705" s="5"/>
       <c r="E705" s="5"/>
-      <c r="J705" s="5"/>
       <c r="K705" s="5"/>
-    </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L705" s="5"/>
+    </row>
+    <row r="706" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A706" s="5"/>
       <c r="E706" s="5"/>
-      <c r="J706" s="5"/>
       <c r="K706" s="5"/>
-    </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L706" s="5"/>
+    </row>
+    <row r="707" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A707" s="5"/>
       <c r="E707" s="5"/>
-      <c r="J707" s="5"/>
       <c r="K707" s="5"/>
-    </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L707" s="5"/>
+    </row>
+    <row r="708" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A708" s="5"/>
       <c r="E708" s="5"/>
-      <c r="J708" s="5"/>
       <c r="K708" s="5"/>
-    </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L708" s="5"/>
+    </row>
+    <row r="709" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A709" s="5"/>
       <c r="E709" s="5"/>
-      <c r="J709" s="5"/>
       <c r="K709" s="5"/>
-    </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L709" s="5"/>
+    </row>
+    <row r="710" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A710" s="5"/>
       <c r="E710" s="5"/>
-      <c r="J710" s="5"/>
       <c r="K710" s="5"/>
-    </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L710" s="5"/>
+    </row>
+    <row r="711" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A711" s="5"/>
       <c r="E711" s="5"/>
-      <c r="J711" s="5"/>
       <c r="K711" s="5"/>
-    </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L711" s="5"/>
+    </row>
+    <row r="712" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A712" s="5"/>
       <c r="E712" s="5"/>
-      <c r="J712" s="5"/>
       <c r="K712" s="5"/>
-    </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L712" s="5"/>
+    </row>
+    <row r="713" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A713" s="5"/>
       <c r="E713" s="5"/>
-      <c r="J713" s="5"/>
       <c r="K713" s="5"/>
-    </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L713" s="5"/>
+    </row>
+    <row r="714" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A714" s="5"/>
       <c r="E714" s="5"/>
-      <c r="J714" s="5"/>
       <c r="K714" s="5"/>
-    </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L714" s="5"/>
+    </row>
+    <row r="715" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A715" s="5"/>
       <c r="E715" s="5"/>
-      <c r="J715" s="5"/>
       <c r="K715" s="5"/>
-    </row>
-    <row r="1253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L715" s="5"/>
+    </row>
+    <row r="1253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1253" s="5"/>
       <c r="E1253" s="5"/>
-      <c r="J1253" s="5"/>
       <c r="K1253" s="5"/>
-    </row>
-    <row r="1254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1253" s="5"/>
+    </row>
+    <row r="1254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1254" s="5"/>
       <c r="E1254" s="5"/>
-      <c r="J1254" s="5"/>
       <c r="K1254" s="5"/>
-    </row>
-    <row r="1255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1254" s="5"/>
+    </row>
+    <row r="1255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1255" s="5"/>
       <c r="E1255" s="5"/>
-      <c r="J1255" s="5"/>
       <c r="K1255" s="5"/>
-    </row>
-    <row r="1256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1255" s="5"/>
+    </row>
+    <row r="1256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1256" s="5"/>
       <c r="E1256" s="5"/>
-      <c r="J1256" s="5"/>
       <c r="K1256" s="5"/>
-    </row>
-    <row r="1257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1256" s="5"/>
+    </row>
+    <row r="1257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1257" s="5"/>
       <c r="E1257" s="5"/>
-      <c r="J1257" s="5"/>
       <c r="K1257" s="5"/>
-    </row>
-    <row r="1258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1257" s="5"/>
+    </row>
+    <row r="1258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1258" s="5"/>
       <c r="E1258" s="5"/>
-      <c r="J1258" s="5"/>
       <c r="K1258" s="5"/>
-    </row>
-    <row r="1259" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1258" s="5"/>
+    </row>
+    <row r="1259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1259" s="5"/>
       <c r="E1259" s="5"/>
-      <c r="J1259" s="5"/>
       <c r="K1259" s="5"/>
-    </row>
-    <row r="1260" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1259" s="5"/>
+    </row>
+    <row r="1260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1260" s="5"/>
       <c r="E1260" s="5"/>
-      <c r="J1260" s="5"/>
       <c r="K1260" s="5"/>
-    </row>
-    <row r="1261" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1260" s="5"/>
+    </row>
+    <row r="1261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1261" s="5"/>
       <c r="E1261" s="5"/>
-      <c r="J1261" s="5"/>
       <c r="K1261" s="5"/>
-    </row>
-    <row r="1262" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1261" s="5"/>
+    </row>
+    <row r="1262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1262" s="5"/>
       <c r="E1262" s="5"/>
-      <c r="J1262" s="5"/>
       <c r="K1262" s="5"/>
-    </row>
-    <row r="1263" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1262" s="5"/>
+    </row>
+    <row r="1263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1263" s="5"/>
       <c r="E1263" s="5"/>
-      <c r="J1263" s="5"/>
       <c r="K1263" s="5"/>
-    </row>
-    <row r="1264" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1263" s="5"/>
+    </row>
+    <row r="1264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1264" s="5"/>
       <c r="E1264" s="5"/>
-      <c r="J1264" s="5"/>
       <c r="K1264" s="5"/>
-    </row>
-    <row r="1265" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1264" s="5"/>
+    </row>
+    <row r="1265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1265" s="5"/>
       <c r="E1265" s="5"/>
-      <c r="J1265" s="5"/>
       <c r="K1265" s="5"/>
-    </row>
-    <row r="1266" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1265" s="5"/>
+    </row>
+    <row r="1266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1266" s="5"/>
       <c r="E1266" s="5"/>
-      <c r="J1266" s="5"/>
       <c r="K1266" s="5"/>
-    </row>
-    <row r="1267" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1266" s="5"/>
+    </row>
+    <row r="1267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1267" s="5"/>
       <c r="E1267" s="5"/>
-      <c r="J1267" s="5"/>
       <c r="K1267" s="5"/>
-    </row>
-    <row r="1268" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1267" s="5"/>
+    </row>
+    <row r="1268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1268" s="5"/>
       <c r="E1268" s="5"/>
-      <c r="J1268" s="5"/>
       <c r="K1268" s="5"/>
-    </row>
-    <row r="1269" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1268" s="5"/>
+    </row>
+    <row r="1269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1269" s="5"/>
       <c r="E1269" s="5"/>
-      <c r="J1269" s="5"/>
       <c r="K1269" s="5"/>
-    </row>
-    <row r="1270" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1269" s="5"/>
+    </row>
+    <row r="1270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1270" s="5"/>
       <c r="E1270" s="5"/>
-      <c r="J1270" s="5"/>
       <c r="K1270" s="5"/>
-    </row>
-    <row r="1271" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1270" s="5"/>
+    </row>
+    <row r="1271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1271" s="5"/>
       <c r="E1271" s="5"/>
-      <c r="J1271" s="5"/>
       <c r="K1271" s="5"/>
-    </row>
-    <row r="1272" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1271" s="5"/>
+    </row>
+    <row r="1272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1272" s="5"/>
       <c r="E1272" s="5"/>
-      <c r="J1272" s="5"/>
       <c r="K1272" s="5"/>
-    </row>
-    <row r="1273" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1272" s="5"/>
+    </row>
+    <row r="1273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1273" s="5"/>
       <c r="E1273" s="5"/>
-      <c r="J1273" s="5"/>
       <c r="K1273" s="5"/>
-    </row>
-    <row r="1274" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1273" s="5"/>
+    </row>
+    <row r="1274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1274" s="5"/>
       <c r="E1274" s="5"/>
-      <c r="J1274" s="5"/>
       <c r="K1274" s="5"/>
-    </row>
-    <row r="1275" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1274" s="5"/>
+    </row>
+    <row r="1275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1275" s="5"/>
       <c r="E1275" s="5"/>
-      <c r="J1275" s="5"/>
       <c r="K1275" s="5"/>
-    </row>
-    <row r="1276" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1275" s="5"/>
+    </row>
+    <row r="1276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1276" s="5"/>
       <c r="E1276" s="5"/>
-      <c r="J1276" s="5"/>
       <c r="K1276" s="5"/>
-    </row>
-    <row r="1277" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1276" s="5"/>
+    </row>
+    <row r="1277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1277" s="5"/>
       <c r="E1277" s="5"/>
-      <c r="J1277" s="5"/>
       <c r="K1277" s="5"/>
-    </row>
-    <row r="1278" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1277" s="5"/>
+    </row>
+    <row r="1278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1278" s="5"/>
       <c r="E1278" s="5"/>
-      <c r="J1278" s="5"/>
       <c r="K1278" s="5"/>
-    </row>
-    <row r="1279" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1278" s="5"/>
+    </row>
+    <row r="1279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1279" s="5"/>
       <c r="E1279" s="5"/>
-      <c r="J1279" s="5"/>
       <c r="K1279" s="5"/>
-    </row>
-    <row r="1280" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1279" s="5"/>
+    </row>
+    <row r="1280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1280" s="5"/>
       <c r="E1280" s="5"/>
-      <c r="J1280" s="5"/>
       <c r="K1280" s="5"/>
-    </row>
-    <row r="1281" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1280" s="5"/>
+    </row>
+    <row r="1281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1281" s="5"/>
       <c r="E1281" s="5"/>
-      <c r="J1281" s="5"/>
       <c r="K1281" s="5"/>
-    </row>
-    <row r="1282" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1281" s="5"/>
+    </row>
+    <row r="1282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1282" s="5"/>
       <c r="E1282" s="5"/>
-      <c r="J1282" s="5"/>
       <c r="K1282" s="5"/>
-    </row>
-    <row r="1283" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1282" s="5"/>
+    </row>
+    <row r="1283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1283" s="5"/>
       <c r="E1283" s="5"/>
-      <c r="J1283" s="5"/>
       <c r="K1283" s="5"/>
-    </row>
-    <row r="1284" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1283" s="5"/>
+    </row>
+    <row r="1284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1284" s="5"/>
       <c r="E1284" s="5"/>
-      <c r="J1284" s="5"/>
       <c r="K1284" s="5"/>
-    </row>
-    <row r="1285" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1284" s="5"/>
+    </row>
+    <row r="1285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1285" s="5"/>
       <c r="E1285" s="5"/>
-      <c r="J1285" s="5"/>
       <c r="K1285" s="5"/>
-    </row>
-    <row r="1286" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1285" s="5"/>
+    </row>
+    <row r="1286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1286" s="5"/>
       <c r="E1286" s="5"/>
-      <c r="J1286" s="5"/>
       <c r="K1286" s="5"/>
-    </row>
-    <row r="1287" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1286" s="5"/>
+    </row>
+    <row r="1287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1287" s="5"/>
       <c r="E1287" s="5"/>
-      <c r="J1287" s="5"/>
       <c r="K1287" s="5"/>
-    </row>
-    <row r="1288" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1287" s="5"/>
+    </row>
+    <row r="1288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1288" s="5"/>
       <c r="E1288" s="5"/>
-      <c r="J1288" s="5"/>
       <c r="K1288" s="5"/>
-    </row>
-    <row r="1289" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1288" s="5"/>
+    </row>
+    <row r="1289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1289" s="5"/>
       <c r="E1289" s="5"/>
-      <c r="J1289" s="5"/>
       <c r="K1289" s="5"/>
-    </row>
-    <row r="1290" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1289" s="5"/>
+    </row>
+    <row r="1290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1290" s="5"/>
       <c r="E1290" s="5"/>
-      <c r="J1290" s="5"/>
       <c r="K1290" s="5"/>
-    </row>
-    <row r="1291" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1290" s="5"/>
+    </row>
+    <row r="1291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1291" s="5"/>
       <c r="E1291" s="5"/>
-      <c r="J1291" s="5"/>
       <c r="K1291" s="5"/>
-    </row>
-    <row r="1292" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1291" s="5"/>
+    </row>
+    <row r="1292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1292" s="5"/>
       <c r="E1292" s="5"/>
-      <c r="J1292" s="5"/>
       <c r="K1292" s="5"/>
-    </row>
-    <row r="1293" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1292" s="5"/>
+    </row>
+    <row r="1293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1293" s="5"/>
       <c r="E1293" s="5"/>
-      <c r="J1293" s="5"/>
       <c r="K1293" s="5"/>
-    </row>
-    <row r="1294" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1293" s="5"/>
+    </row>
+    <row r="1294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1294" s="5"/>
       <c r="E1294" s="5"/>
-      <c r="J1294" s="5"/>
       <c r="K1294" s="5"/>
-    </row>
-    <row r="1295" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1294" s="5"/>
+    </row>
+    <row r="1295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1295" s="5"/>
       <c r="E1295" s="5"/>
-      <c r="J1295" s="5"/>
       <c r="K1295" s="5"/>
-    </row>
-    <row r="1296" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1295" s="5"/>
+    </row>
+    <row r="1296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1296" s="5"/>
       <c r="E1296" s="5"/>
-      <c r="J1296" s="5"/>
       <c r="K1296" s="5"/>
-    </row>
-    <row r="1297" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1296" s="5"/>
+    </row>
+    <row r="1297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1297" s="5"/>
       <c r="E1297" s="5"/>
-      <c r="J1297" s="5"/>
       <c r="K1297" s="5"/>
-    </row>
-    <row r="1298" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1297" s="5"/>
+    </row>
+    <row r="1298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1298" s="5"/>
       <c r="E1298" s="5"/>
-      <c r="J1298" s="5"/>
       <c r="K1298" s="5"/>
-    </row>
-    <row r="1299" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1298" s="5"/>
+    </row>
+    <row r="1299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1299" s="5"/>
       <c r="E1299" s="5"/>
-      <c r="J1299" s="5"/>
       <c r="K1299" s="5"/>
-    </row>
-    <row r="1300" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1299" s="5"/>
+    </row>
+    <row r="1300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1300" s="5"/>
       <c r="E1300" s="5"/>
-      <c r="J1300" s="5"/>
       <c r="K1300" s="5"/>
-    </row>
-    <row r="1301" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1300" s="5"/>
+    </row>
+    <row r="1301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1301" s="5"/>
       <c r="E1301" s="5"/>
-      <c r="J1301" s="5"/>
       <c r="K1301" s="5"/>
-    </row>
-    <row r="1302" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1301" s="5"/>
+    </row>
+    <row r="1302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1302" s="5"/>
       <c r="E1302" s="5"/>
-      <c r="J1302" s="5"/>
       <c r="K1302" s="5"/>
-    </row>
-    <row r="1303" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1302" s="5"/>
+    </row>
+    <row r="1303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1303" s="5"/>
       <c r="E1303" s="5"/>
-      <c r="J1303" s="5"/>
       <c r="K1303" s="5"/>
-    </row>
-    <row r="1304" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1303" s="5"/>
+    </row>
+    <row r="1304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1304" s="5"/>
       <c r="E1304" s="5"/>
-      <c r="J1304" s="5"/>
       <c r="K1304" s="5"/>
-    </row>
-    <row r="1305" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1304" s="5"/>
+    </row>
+    <row r="1305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1305" s="5"/>
       <c r="E1305" s="5"/>
-      <c r="J1305" s="5"/>
       <c r="K1305" s="5"/>
-    </row>
-    <row r="1306" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1305" s="5"/>
+    </row>
+    <row r="1306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1306" s="5"/>
       <c r="E1306" s="5"/>
-      <c r="J1306" s="5"/>
       <c r="K1306" s="5"/>
-    </row>
-    <row r="1307" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1306" s="5"/>
+    </row>
+    <row r="1307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1307" s="5"/>
       <c r="E1307" s="5"/>
-      <c r="J1307" s="5"/>
       <c r="K1307" s="5"/>
-    </row>
-    <row r="1308" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1307" s="5"/>
+    </row>
+    <row r="1308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1308" s="5"/>
       <c r="E1308" s="5"/>
-      <c r="J1308" s="5"/>
       <c r="K1308" s="5"/>
-    </row>
-    <row r="1309" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1308" s="5"/>
+    </row>
+    <row r="1309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1309" s="5"/>
       <c r="E1309" s="5"/>
-      <c r="J1309" s="5"/>
       <c r="K1309" s="5"/>
-    </row>
-    <row r="1310" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1309" s="5"/>
+    </row>
+    <row r="1310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1310" s="5"/>
       <c r="E1310" s="5"/>
-      <c r="J1310" s="5"/>
       <c r="K1310" s="5"/>
-    </row>
-    <row r="1311" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1310" s="5"/>
+    </row>
+    <row r="1311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1311" s="5"/>
       <c r="E1311" s="5"/>
-      <c r="J1311" s="5"/>
       <c r="K1311" s="5"/>
-    </row>
-    <row r="1312" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1311" s="5"/>
+    </row>
+    <row r="1312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1312" s="5"/>
       <c r="E1312" s="5"/>
-      <c r="J1312" s="5"/>
       <c r="K1312" s="5"/>
-    </row>
-    <row r="1313" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1312" s="5"/>
+    </row>
+    <row r="1313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1313" s="5"/>
       <c r="E1313" s="5"/>
-      <c r="J1313" s="5"/>
       <c r="K1313" s="5"/>
-    </row>
-    <row r="1314" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1313" s="5"/>
+    </row>
+    <row r="1314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1314" s="5"/>
       <c r="E1314" s="5"/>
-      <c r="J1314" s="5"/>
       <c r="K1314" s="5"/>
-    </row>
-    <row r="1315" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1314" s="5"/>
+    </row>
+    <row r="1315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1315" s="5"/>
       <c r="E1315" s="5"/>
-      <c r="J1315" s="5"/>
       <c r="K1315" s="5"/>
-    </row>
-    <row r="1316" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1315" s="5"/>
+    </row>
+    <row r="1316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1316" s="5"/>
       <c r="E1316" s="5"/>
-      <c r="J1316" s="5"/>
       <c r="K1316" s="5"/>
-    </row>
-    <row r="1317" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1316" s="5"/>
+    </row>
+    <row r="1317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1317" s="5"/>
       <c r="E1317" s="5"/>
-      <c r="J1317" s="5"/>
       <c r="K1317" s="5"/>
-    </row>
-    <row r="1318" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1317" s="5"/>
+    </row>
+    <row r="1318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1318" s="5"/>
       <c r="E1318" s="5"/>
-      <c r="J1318" s="5"/>
       <c r="K1318" s="5"/>
-    </row>
-    <row r="1319" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1318" s="5"/>
+    </row>
+    <row r="1319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1319" s="5"/>
       <c r="E1319" s="5"/>
-      <c r="J1319" s="5"/>
       <c r="K1319" s="5"/>
-    </row>
-    <row r="1320" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1319" s="5"/>
+    </row>
+    <row r="1320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1320" s="5"/>
       <c r="E1320" s="5"/>
-      <c r="J1320" s="5"/>
       <c r="K1320" s="5"/>
-    </row>
-    <row r="1321" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1320" s="5"/>
+    </row>
+    <row r="1321" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1321" s="5"/>
       <c r="E1321" s="5"/>
-      <c r="J1321" s="5"/>
       <c r="K1321" s="5"/>
-    </row>
-    <row r="1322" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1321" s="5"/>
+    </row>
+    <row r="1322" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1322" s="5"/>
       <c r="E1322" s="5"/>
-      <c r="J1322" s="5"/>
       <c r="K1322" s="5"/>
-    </row>
-    <row r="1323" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1322" s="5"/>
+    </row>
+    <row r="1323" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1323" s="5"/>
       <c r="E1323" s="5"/>
-      <c r="J1323" s="5"/>
       <c r="K1323" s="5"/>
-    </row>
-    <row r="1324" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1323" s="5"/>
+    </row>
+    <row r="1324" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1324" s="5"/>
       <c r="E1324" s="5"/>
-      <c r="J1324" s="5"/>
       <c r="K1324" s="5"/>
-    </row>
-    <row r="1325" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1324" s="5"/>
+    </row>
+    <row r="1325" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1325" s="5"/>
       <c r="E1325" s="5"/>
-      <c r="J1325" s="5"/>
       <c r="K1325" s="5"/>
-    </row>
-    <row r="1326" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1325" s="5"/>
+    </row>
+    <row r="1326" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1326" s="5"/>
       <c r="E1326" s="5"/>
-      <c r="J1326" s="5"/>
       <c r="K1326" s="5"/>
-    </row>
-    <row r="1327" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1326" s="5"/>
+    </row>
+    <row r="1327" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1327" s="5"/>
       <c r="E1327" s="5"/>
-      <c r="J1327" s="5"/>
       <c r="K1327" s="5"/>
-    </row>
-    <row r="1328" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1327" s="5"/>
+    </row>
+    <row r="1328" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1328" s="5"/>
       <c r="E1328" s="5"/>
-      <c r="J1328" s="5"/>
       <c r="K1328" s="5"/>
-    </row>
-    <row r="1329" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1328" s="5"/>
+    </row>
+    <row r="1329" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1329" s="5"/>
       <c r="E1329" s="5"/>
-      <c r="J1329" s="5"/>
       <c r="K1329" s="5"/>
-    </row>
-    <row r="1330" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1329" s="5"/>
+    </row>
+    <row r="1330" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1330" s="5"/>
       <c r="E1330" s="5"/>
-      <c r="J1330" s="5"/>
       <c r="K1330" s="5"/>
-    </row>
-    <row r="1331" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1330" s="5"/>
+    </row>
+    <row r="1331" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1331" s="5"/>
       <c r="E1331" s="5"/>
-      <c r="J1331" s="5"/>
       <c r="K1331" s="5"/>
-    </row>
-    <row r="1332" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1331" s="5"/>
+    </row>
+    <row r="1332" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1332" s="5"/>
       <c r="E1332" s="5"/>
-      <c r="J1332" s="5"/>
       <c r="K1332" s="5"/>
-    </row>
-    <row r="1333" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1332" s="5"/>
+    </row>
+    <row r="1333" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1333" s="5"/>
       <c r="E1333" s="5"/>
-      <c r="J1333" s="5"/>
       <c r="K1333" s="5"/>
-    </row>
-    <row r="1334" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1333" s="5"/>
+    </row>
+    <row r="1334" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1334" s="5"/>
       <c r="E1334" s="5"/>
-      <c r="J1334" s="5"/>
       <c r="K1334" s="5"/>
-    </row>
-    <row r="1335" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1334" s="5"/>
+    </row>
+    <row r="1335" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1335" s="5"/>
       <c r="E1335" s="5"/>
-      <c r="J1335" s="5"/>
       <c r="K1335" s="5"/>
-    </row>
-    <row r="1336" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1335" s="5"/>
+    </row>
+    <row r="1336" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1336" s="5"/>
       <c r="E1336" s="5"/>
-      <c r="J1336" s="5"/>
       <c r="K1336" s="5"/>
-    </row>
-    <row r="1337" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1336" s="5"/>
+    </row>
+    <row r="1337" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1337" s="5"/>
       <c r="E1337" s="5"/>
-      <c r="J1337" s="5"/>
       <c r="K1337" s="5"/>
-    </row>
-    <row r="1338" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1337" s="5"/>
+    </row>
+    <row r="1338" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1338" s="5"/>
       <c r="E1338" s="5"/>
-      <c r="J1338" s="5"/>
       <c r="K1338" s="5"/>
-    </row>
-    <row r="1339" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1338" s="5"/>
+    </row>
+    <row r="1339" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1339" s="5"/>
       <c r="E1339" s="5"/>
-      <c r="J1339" s="5"/>
       <c r="K1339" s="5"/>
-    </row>
-    <row r="1340" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1339" s="5"/>
+    </row>
+    <row r="1340" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1340" s="5"/>
       <c r="E1340" s="5"/>
-      <c r="J1340" s="5"/>
       <c r="K1340" s="5"/>
-    </row>
-    <row r="1341" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1340" s="5"/>
+    </row>
+    <row r="1341" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1341" s="5"/>
       <c r="E1341" s="5"/>
-      <c r="J1341" s="5"/>
       <c r="K1341" s="5"/>
-    </row>
-    <row r="1342" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1341" s="5"/>
+    </row>
+    <row r="1342" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1342" s="5"/>
       <c r="E1342" s="5"/>
-      <c r="J1342" s="5"/>
       <c r="K1342" s="5"/>
-    </row>
-    <row r="1343" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1342" s="5"/>
+    </row>
+    <row r="1343" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1343" s="5"/>
       <c r="E1343" s="5"/>
-      <c r="J1343" s="5"/>
       <c r="K1343" s="5"/>
-    </row>
-    <row r="1344" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1343" s="5"/>
+    </row>
+    <row r="1344" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1344" s="5"/>
       <c r="E1344" s="5"/>
-      <c r="J1344" s="5"/>
       <c r="K1344" s="5"/>
-    </row>
-    <row r="1345" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1344" s="5"/>
+    </row>
+    <row r="1345" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1345" s="5"/>
       <c r="E1345" s="5"/>
-      <c r="J1345" s="5"/>
       <c r="K1345" s="5"/>
-    </row>
-    <row r="1346" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1345" s="5"/>
+    </row>
+    <row r="1346" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1346" s="5"/>
       <c r="E1346" s="5"/>
-      <c r="J1346" s="5"/>
       <c r="K1346" s="5"/>
-    </row>
-    <row r="1347" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1346" s="5"/>
+    </row>
+    <row r="1347" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1347" s="5"/>
       <c r="E1347" s="5"/>
-      <c r="J1347" s="5"/>
       <c r="K1347" s="5"/>
-    </row>
-    <row r="1348" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1347" s="5"/>
+    </row>
+    <row r="1348" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1348" s="5"/>
       <c r="E1348" s="5"/>
-      <c r="J1348" s="5"/>
       <c r="K1348" s="5"/>
-    </row>
-    <row r="1349" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1348" s="5"/>
+    </row>
+    <row r="1349" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1349" s="5"/>
       <c r="E1349" s="5"/>
-      <c r="J1349" s="5"/>
       <c r="K1349" s="5"/>
-    </row>
-    <row r="1350" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1349" s="5"/>
+    </row>
+    <row r="1350" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1350" s="5"/>
       <c r="E1350" s="5"/>
-      <c r="J1350" s="5"/>
       <c r="K1350" s="5"/>
-    </row>
-    <row r="1351" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1350" s="5"/>
+    </row>
+    <row r="1351" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1351" s="5"/>
       <c r="E1351" s="5"/>
-      <c r="J1351" s="5"/>
       <c r="K1351" s="5"/>
-    </row>
-    <row r="1352" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1351" s="5"/>
+    </row>
+    <row r="1352" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1352" s="5"/>
       <c r="E1352" s="5"/>
-      <c r="J1352" s="5"/>
       <c r="K1352" s="5"/>
-    </row>
-    <row r="1353" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1352" s="5"/>
+    </row>
+    <row r="1353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1353" s="5"/>
       <c r="E1353" s="5"/>
-      <c r="J1353" s="5"/>
       <c r="K1353" s="5"/>
-    </row>
-    <row r="1354" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1353" s="5"/>
+    </row>
+    <row r="1354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1354" s="5"/>
       <c r="E1354" s="5"/>
-      <c r="J1354" s="5"/>
       <c r="K1354" s="5"/>
-    </row>
-    <row r="1355" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1354" s="5"/>
+    </row>
+    <row r="1355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1355" s="5"/>
       <c r="E1355" s="5"/>
-      <c r="J1355" s="5"/>
       <c r="K1355" s="5"/>
-    </row>
-    <row r="1356" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1355" s="5"/>
+    </row>
+    <row r="1356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1356" s="5"/>
       <c r="E1356" s="5"/>
-      <c r="J1356" s="5"/>
       <c r="K1356" s="5"/>
-    </row>
-    <row r="1357" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1356" s="5"/>
+    </row>
+    <row r="1357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1357" s="5"/>
       <c r="E1357" s="5"/>
-      <c r="J1357" s="5"/>
       <c r="K1357" s="5"/>
-    </row>
-    <row r="1413" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1357" s="5"/>
+    </row>
+    <row r="1413" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1413" s="5"/>
       <c r="E1413" s="5"/>
-      <c r="J1413" s="5"/>
       <c r="K1413" s="5"/>
-    </row>
-    <row r="1585" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1413" s="5"/>
+    </row>
+    <row r="1585" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1585" s="5"/>
       <c r="E1585" s="5"/>
-      <c r="J1585" s="5"/>
       <c r="K1585" s="5"/>
-    </row>
-    <row r="1757" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1585" s="5"/>
+    </row>
+    <row r="1757" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1757" s="5"/>
       <c r="E1757" s="5"/>
-      <c r="J1757" s="5"/>
       <c r="K1757" s="5"/>
-    </row>
-    <row r="1758" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1757" s="5"/>
+    </row>
+    <row r="1758" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1758" s="5"/>
       <c r="E1758" s="5"/>
-      <c r="J1758" s="5"/>
       <c r="K1758" s="5"/>
-    </row>
-    <row r="1760" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1758" s="5"/>
+    </row>
+    <row r="1760" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1760" s="5"/>
       <c r="E1760" s="5"/>
-      <c r="J1760" s="5"/>
       <c r="K1760" s="5"/>
-    </row>
-    <row r="2991" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1760" s="5"/>
+    </row>
+    <row r="2991" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2991" s="5"/>
       <c r="E2991" s="5"/>
-      <c r="J2991" s="5"/>
       <c r="K2991" s="5"/>
-    </row>
-    <row r="2992" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2991" s="5"/>
+    </row>
+    <row r="2992" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2992" s="5"/>
       <c r="E2992" s="5"/>
-      <c r="J2992" s="5"/>
       <c r="K2992" s="5"/>
-    </row>
-    <row r="2993" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2992" s="5"/>
+    </row>
+    <row r="2993" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2993" s="5"/>
       <c r="E2993" s="5"/>
-      <c r="J2993" s="5"/>
       <c r="K2993" s="5"/>
-    </row>
-    <row r="2994" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2993" s="5"/>
+    </row>
+    <row r="2994" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2994" s="5"/>
       <c r="E2994" s="5"/>
-      <c r="J2994" s="5"/>
       <c r="K2994" s="5"/>
-    </row>
-    <row r="2995" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2994" s="5"/>
+    </row>
+    <row r="2995" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2995" s="5"/>
       <c r="E2995" s="5"/>
-      <c r="J2995" s="5"/>
       <c r="K2995" s="5"/>
-    </row>
-    <row r="2996" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2995" s="5"/>
+    </row>
+    <row r="2996" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2996" s="5"/>
       <c r="E2996" s="5"/>
-      <c r="J2996" s="5"/>
       <c r="K2996" s="5"/>
-    </row>
-    <row r="2997" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2996" s="5"/>
+    </row>
+    <row r="2997" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2997" s="5"/>
       <c r="E2997" s="5"/>
-      <c r="J2997" s="5"/>
       <c r="K2997" s="5"/>
-    </row>
-    <row r="2998" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2997" s="5"/>
+    </row>
+    <row r="2998" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2998" s="5"/>
       <c r="E2998" s="5"/>
-      <c r="J2998" s="5"/>
       <c r="K2998" s="5"/>
-    </row>
-    <row r="2999" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2998" s="5"/>
+    </row>
+    <row r="2999" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2999" s="5"/>
       <c r="E2999" s="5"/>
-      <c r="J2999" s="5"/>
       <c r="K2999" s="5"/>
-    </row>
-    <row r="3000" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2999" s="5"/>
+    </row>
+    <row r="3000" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3000" s="5"/>
       <c r="E3000" s="5"/>
-      <c r="J3000" s="5"/>
       <c r="K3000" s="5"/>
-    </row>
-    <row r="3001" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3000" s="5"/>
+    </row>
+    <row r="3001" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3001" s="5"/>
       <c r="E3001" s="5"/>
-      <c r="J3001" s="5"/>
       <c r="K3001" s="5"/>
-    </row>
-    <row r="3002" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3001" s="5"/>
+    </row>
+    <row r="3002" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3002" s="5"/>
       <c r="E3002" s="5"/>
-      <c r="J3002" s="5"/>
       <c r="K3002" s="5"/>
-    </row>
-    <row r="3003" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3002" s="5"/>
+    </row>
+    <row r="3003" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3003" s="5"/>
       <c r="E3003" s="5"/>
-      <c r="J3003" s="5"/>
       <c r="K3003" s="5"/>
-    </row>
-    <row r="3004" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3003" s="5"/>
+    </row>
+    <row r="3004" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3004" s="5"/>
       <c r="E3004" s="5"/>
-      <c r="J3004" s="5"/>
       <c r="K3004" s="5"/>
-    </row>
-    <row r="3005" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3004" s="5"/>
+    </row>
+    <row r="3005" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3005" s="5"/>
       <c r="E3005" s="5"/>
-      <c r="J3005" s="5"/>
       <c r="K3005" s="5"/>
-    </row>
-    <row r="3006" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3005" s="5"/>
+    </row>
+    <row r="3006" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3006" s="5"/>
       <c r="E3006" s="5"/>
-      <c r="J3006" s="5"/>
       <c r="K3006" s="5"/>
-    </row>
-    <row r="3007" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3006" s="5"/>
+    </row>
+    <row r="3007" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3007" s="5"/>
       <c r="E3007" s="5"/>
-      <c r="J3007" s="5"/>
       <c r="K3007" s="5"/>
-    </row>
-    <row r="3008" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3007" s="5"/>
+    </row>
+    <row r="3008" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3008" s="5"/>
       <c r="E3008" s="5"/>
-      <c r="J3008" s="5"/>
       <c r="K3008" s="5"/>
-    </row>
-    <row r="3009" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3008" s="5"/>
+    </row>
+    <row r="3009" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3009" s="5"/>
       <c r="E3009" s="5"/>
-      <c r="J3009" s="5"/>
       <c r="K3009" s="5"/>
-    </row>
-    <row r="3010" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3009" s="5"/>
+    </row>
+    <row r="3010" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3010" s="5"/>
       <c r="E3010" s="5"/>
-      <c r="J3010" s="5"/>
       <c r="K3010" s="5"/>
-    </row>
-    <row r="3011" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3010" s="5"/>
+    </row>
+    <row r="3011" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3011" s="5"/>
       <c r="E3011" s="5"/>
-      <c r="J3011" s="5"/>
       <c r="K3011" s="5"/>
-    </row>
-    <row r="3012" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3011" s="5"/>
+    </row>
+    <row r="3012" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3012" s="5"/>
       <c r="E3012" s="5"/>
-      <c r="J3012" s="5"/>
       <c r="K3012" s="5"/>
-    </row>
-    <row r="3013" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3012" s="5"/>
+    </row>
+    <row r="3013" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3013" s="5"/>
       <c r="E3013" s="5"/>
-      <c r="J3013" s="5"/>
       <c r="K3013" s="5"/>
-    </row>
-    <row r="3014" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3013" s="5"/>
+    </row>
+    <row r="3014" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3014" s="5"/>
       <c r="E3014" s="5"/>
-      <c r="J3014" s="5"/>
       <c r="K3014" s="5"/>
-    </row>
-    <row r="3015" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3014" s="5"/>
+    </row>
+    <row r="3015" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3015" s="5"/>
       <c r="E3015" s="5"/>
-      <c r="J3015" s="5"/>
       <c r="K3015" s="5"/>
-    </row>
-    <row r="3016" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3015" s="5"/>
+    </row>
+    <row r="3016" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3016" s="5"/>
       <c r="E3016" s="5"/>
-      <c r="J3016" s="5"/>
       <c r="K3016" s="5"/>
-    </row>
-    <row r="3017" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3016" s="5"/>
+    </row>
+    <row r="3017" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3017" s="5"/>
       <c r="E3017" s="5"/>
-      <c r="J3017" s="5"/>
       <c r="K3017" s="5"/>
-    </row>
-    <row r="3018" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3017" s="5"/>
+    </row>
+    <row r="3018" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3018" s="5"/>
       <c r="E3018" s="5"/>
-      <c r="J3018" s="5"/>
       <c r="K3018" s="5"/>
-    </row>
-    <row r="3019" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3018" s="5"/>
+    </row>
+    <row r="3019" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3019" s="5"/>
       <c r="E3019" s="5"/>
-      <c r="J3019" s="5"/>
       <c r="K3019" s="5"/>
-    </row>
-    <row r="3085" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3019" s="5"/>
+    </row>
+    <row r="3085" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3085" s="5"/>
       <c r="E3085" s="5"/>
-      <c r="J3085" s="5"/>
       <c r="K3085" s="5"/>
-    </row>
-    <row r="3086" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3085" s="5"/>
+    </row>
+    <row r="3086" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3086" s="5"/>
       <c r="E3086" s="5"/>
-      <c r="J3086" s="5"/>
       <c r="K3086" s="5"/>
-    </row>
-    <row r="3087" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3086" s="5"/>
+    </row>
+    <row r="3087" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3087" s="5"/>
       <c r="E3087" s="5"/>
-      <c r="J3087" s="5"/>
       <c r="K3087" s="5"/>
-    </row>
-    <row r="3088" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3087" s="5"/>
+    </row>
+    <row r="3088" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3088" s="5"/>
       <c r="E3088" s="5"/>
-      <c r="J3088" s="5"/>
       <c r="K3088" s="5"/>
-    </row>
-    <row r="3089" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3088" s="5"/>
+    </row>
+    <row r="3089" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3089" s="5"/>
       <c r="E3089" s="5"/>
-      <c r="J3089" s="5"/>
       <c r="K3089" s="5"/>
-    </row>
-    <row r="3090" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3089" s="5"/>
+    </row>
+    <row r="3090" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3090" s="5"/>
       <c r="E3090" s="5"/>
-      <c r="J3090" s="5"/>
       <c r="K3090" s="5"/>
-    </row>
-    <row r="3091" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3090" s="5"/>
+    </row>
+    <row r="3091" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3091" s="5"/>
       <c r="E3091" s="5"/>
-      <c r="J3091" s="5"/>
       <c r="K3091" s="5"/>
-    </row>
-    <row r="3092" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3091" s="5"/>
+    </row>
+    <row r="3092" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3092" s="5"/>
       <c r="E3092" s="5"/>
-      <c r="J3092" s="5"/>
       <c r="K3092" s="5"/>
-    </row>
-    <row r="3093" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3092" s="5"/>
+    </row>
+    <row r="3093" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3093" s="5"/>
       <c r="E3093" s="5"/>
-      <c r="J3093" s="5"/>
       <c r="K3093" s="5"/>
-    </row>
-    <row r="3094" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3093" s="5"/>
+    </row>
+    <row r="3094" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3094" s="5"/>
       <c r="E3094" s="5"/>
-      <c r="J3094" s="5"/>
       <c r="K3094" s="5"/>
-    </row>
-    <row r="3095" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3094" s="5"/>
+    </row>
+    <row r="3095" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3095" s="5"/>
       <c r="E3095" s="5"/>
-      <c r="J3095" s="5"/>
       <c r="K3095" s="5"/>
-    </row>
-    <row r="3096" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3095" s="5"/>
+    </row>
+    <row r="3096" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3096" s="5"/>
       <c r="E3096" s="5"/>
-      <c r="J3096" s="5"/>
       <c r="K3096" s="5"/>
-    </row>
-    <row r="3097" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3096" s="5"/>
+    </row>
+    <row r="3097" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3097" s="5"/>
       <c r="E3097" s="5"/>
-      <c r="J3097" s="5"/>
       <c r="K3097" s="5"/>
-    </row>
-    <row r="3098" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3097" s="5"/>
+    </row>
+    <row r="3098" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3098" s="5"/>
       <c r="E3098" s="5"/>
-      <c r="J3098" s="5"/>
       <c r="K3098" s="5"/>
-    </row>
-    <row r="3099" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3098" s="5"/>
+    </row>
+    <row r="3099" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3099" s="5"/>
       <c r="E3099" s="5"/>
-      <c r="J3099" s="5"/>
       <c r="K3099" s="5"/>
-    </row>
-    <row r="3100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3099" s="5"/>
+    </row>
+    <row r="3100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3100" s="5"/>
       <c r="E3100" s="5"/>
-      <c r="J3100" s="5"/>
       <c r="K3100" s="5"/>
-    </row>
-    <row r="3101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3100" s="5"/>
+    </row>
+    <row r="3101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3101" s="5"/>
       <c r="E3101" s="5"/>
-      <c r="J3101" s="5"/>
       <c r="K3101" s="5"/>
-    </row>
-    <row r="3102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3101" s="5"/>
+    </row>
+    <row r="3102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3102" s="5"/>
       <c r="E3102" s="5"/>
-      <c r="J3102" s="5"/>
       <c r="K3102" s="5"/>
-    </row>
-    <row r="3214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3102" s="5"/>
+    </row>
+    <row r="3214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3214" s="5"/>
       <c r="E3214" s="5"/>
-      <c r="J3214" s="5"/>
       <c r="K3214" s="5"/>
-    </row>
-    <row r="3215" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3214" s="5"/>
+    </row>
+    <row r="3215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3215" s="5"/>
       <c r="E3215" s="5"/>
-      <c r="J3215" s="5"/>
       <c r="K3215" s="5"/>
-    </row>
-    <row r="3218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3215" s="5"/>
+    </row>
+    <row r="3218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3218" s="5"/>
       <c r="E3218" s="5"/>
-      <c r="J3218" s="5"/>
       <c r="K3218" s="5"/>
-    </row>
-    <row r="3223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3218" s="5"/>
+    </row>
+    <row r="3223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3223" s="5"/>
       <c r="E3223" s="5"/>
-      <c r="J3223" s="5"/>
       <c r="K3223" s="5"/>
-    </row>
-    <row r="3263" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3223" s="5"/>
+    </row>
+    <row r="3263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3263" s="5"/>
       <c r="E3263" s="5"/>
-      <c r="J3263" s="5"/>
       <c r="K3263" s="5"/>
-    </row>
-    <row r="3264" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3263" s="5"/>
+    </row>
+    <row r="3264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3264" s="5"/>
       <c r="E3264" s="5"/>
-      <c r="J3264" s="5"/>
       <c r="K3264" s="5"/>
-    </row>
-    <row r="3265" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3264" s="5"/>
+    </row>
+    <row r="3265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3265" s="5"/>
       <c r="E3265" s="5"/>
-      <c r="J3265" s="5"/>
       <c r="K3265" s="5"/>
-    </row>
-    <row r="3266" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3265" s="5"/>
+    </row>
+    <row r="3266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3266" s="5"/>
       <c r="E3266" s="5"/>
-      <c r="J3266" s="5"/>
       <c r="K3266" s="5"/>
-    </row>
-    <row r="3267" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3266" s="5"/>
+    </row>
+    <row r="3267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3267" s="5"/>
       <c r="E3267" s="5"/>
-      <c r="J3267" s="5"/>
       <c r="K3267" s="5"/>
-    </row>
-    <row r="3268" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3267" s="5"/>
+    </row>
+    <row r="3268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3268" s="5"/>
       <c r="E3268" s="5"/>
-      <c r="J3268" s="5"/>
       <c r="K3268" s="5"/>
-    </row>
-    <row r="3269" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3268" s="5"/>
+    </row>
+    <row r="3269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3269" s="5"/>
       <c r="E3269" s="5"/>
-      <c r="J3269" s="5"/>
       <c r="K3269" s="5"/>
-    </row>
-    <row r="3270" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3269" s="5"/>
+    </row>
+    <row r="3270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3270" s="5"/>
       <c r="E3270" s="5"/>
-      <c r="J3270" s="5"/>
       <c r="K3270" s="5"/>
-    </row>
-    <row r="3271" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3270" s="5"/>
+    </row>
+    <row r="3271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3271" s="5"/>
       <c r="E3271" s="5"/>
-      <c r="J3271" s="5"/>
       <c r="K3271" s="5"/>
-    </row>
-    <row r="3272" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3271" s="5"/>
+    </row>
+    <row r="3272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3272" s="5"/>
       <c r="E3272" s="5"/>
-      <c r="J3272" s="5"/>
       <c r="K3272" s="5"/>
-    </row>
-    <row r="3273" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3272" s="5"/>
+    </row>
+    <row r="3273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3273" s="5"/>
       <c r="E3273" s="5"/>
-      <c r="J3273" s="5"/>
       <c r="K3273" s="5"/>
-    </row>
-    <row r="3274" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3273" s="5"/>
+    </row>
+    <row r="3274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3274" s="5"/>
       <c r="E3274" s="5"/>
-      <c r="J3274" s="5"/>
       <c r="K3274" s="5"/>
-    </row>
-    <row r="3275" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3274" s="5"/>
+    </row>
+    <row r="3275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3275" s="5"/>
       <c r="E3275" s="5"/>
-      <c r="J3275" s="5"/>
       <c r="K3275" s="5"/>
-    </row>
-    <row r="3276" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3275" s="5"/>
+    </row>
+    <row r="3276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3276" s="5"/>
       <c r="E3276" s="5"/>
-      <c r="J3276" s="5"/>
       <c r="K3276" s="5"/>
-    </row>
-    <row r="3277" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3276" s="5"/>
+    </row>
+    <row r="3277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3277" s="5"/>
       <c r="E3277" s="5"/>
-      <c r="J3277" s="5"/>
       <c r="K3277" s="5"/>
-    </row>
-    <row r="3278" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3277" s="5"/>
+    </row>
+    <row r="3278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3278" s="5"/>
       <c r="E3278" s="5"/>
-      <c r="J3278" s="5"/>
       <c r="K3278" s="5"/>
-    </row>
-    <row r="3279" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3278" s="5"/>
+    </row>
+    <row r="3279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3279" s="5"/>
       <c r="E3279" s="5"/>
-      <c r="J3279" s="5"/>
       <c r="K3279" s="5"/>
-    </row>
-    <row r="3280" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3279" s="5"/>
+    </row>
+    <row r="3280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3280" s="5"/>
       <c r="E3280" s="5"/>
-      <c r="J3280" s="5"/>
       <c r="K3280" s="5"/>
-    </row>
-    <row r="3283" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3280" s="5"/>
+    </row>
+    <row r="3283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3283" s="5"/>
       <c r="E3283" s="5"/>
-      <c r="J3283" s="5"/>
       <c r="K3283" s="5"/>
-    </row>
-    <row r="3284" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3283" s="5"/>
+    </row>
+    <row r="3284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3284" s="5"/>
       <c r="E3284" s="5"/>
-      <c r="J3284" s="5"/>
       <c r="K3284" s="5"/>
-    </row>
-    <row r="3285" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3284" s="5"/>
+    </row>
+    <row r="3285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3285" s="5"/>
       <c r="E3285" s="5"/>
-      <c r="J3285" s="5"/>
       <c r="K3285" s="5"/>
-    </row>
-    <row r="3286" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3285" s="5"/>
+    </row>
+    <row r="3286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3286" s="5"/>
       <c r="E3286" s="5"/>
-      <c r="J3286" s="5"/>
       <c r="K3286" s="5"/>
-    </row>
-    <row r="3289" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3286" s="5"/>
+    </row>
+    <row r="3289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3289" s="5"/>
       <c r="E3289" s="5"/>
-      <c r="J3289" s="5"/>
       <c r="K3289" s="5"/>
-    </row>
-    <row r="3290" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3289" s="5"/>
+    </row>
+    <row r="3290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3290" s="5"/>
       <c r="E3290" s="5"/>
-      <c r="J3290" s="5"/>
       <c r="K3290" s="5"/>
+      <c r="L3290" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K5760" xr:uid="{478C4110-E36A-4057-ABA5-939BE81C3098}"/>
+  <autoFilter ref="A2:L5760" xr:uid="{478C4110-E36A-4057-ABA5-939BE81C3098}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>